--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,9 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$4284</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$I$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$I$4284</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="153">
   <si>
     <t xml:space="preserve">chapter</t>
   </si>
@@ -422,6 +425,66 @@
     <t xml:space="preserve">войти, направиться между кем, чем-л.</t>
   </si>
   <si>
+    <t xml:space="preserve">гъра-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-ды-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-жвы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-за</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ква-ц1а-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(г1а)-квы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к1ы-ды-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к1-ла-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-ма-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-ны-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-пы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">та-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тшпны-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тшы-жвы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хъа-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1а-хъа-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хъвы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ш1ы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щ-к1-ла-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а-щта-</t>
+  </si>
+  <si>
     <t xml:space="preserve">лечь, ложиться</t>
   </si>
 </sst>
@@ -432,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,11 +522,6 @@
       <name val="Brill"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Brill"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,16 +566,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,23 +599,23 @@
   <dimension ref="A1:I4284"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C51" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="C113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,6 +663,7 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,6 +690,7 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
@@ -661,6 +717,7 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
@@ -687,6 +744,7 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,6 +771,7 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,6 +798,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
@@ -765,6 +825,7 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F8" s="0"/>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,6 +852,7 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,6 +879,7 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F10" s="0"/>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
@@ -866,12 +929,13 @@
       <c r="C12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F12" s="0"/>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
@@ -892,12 +956,13 @@
       <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="0"/>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,6 +1018,7 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="0"/>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,6 +1045,7 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,6 +1072,7 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F17" s="0"/>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,6 +1099,7 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F18" s="0"/>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,6 +1126,7 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F19" s="0"/>
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,6 +1153,7 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F20" s="0"/>
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,6 +1209,7 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,6 +1236,7 @@
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,6 +1263,7 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F24" s="0"/>
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,6 +1290,7 @@
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F25" s="0"/>
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,6 +1317,7 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F26" s="0"/>
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,6 +1344,7 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F27" s="0"/>
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1294,6 +1371,7 @@
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F28" s="0"/>
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2247,10 +2325,15 @@
       <c r="A65" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B65" s="0"/>
+      <c r="B65" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C65" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="D65" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2260,15 +2343,21 @@
       <c r="H65" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B66" s="0"/>
+      <c r="B66" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C66" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="D66" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>128</v>
       </c>
@@ -2278,15 +2367,21 @@
       <c r="H66" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B67" s="0"/>
+      <c r="B67" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C67" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="D67" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>128</v>
       </c>
@@ -2296,15 +2391,21 @@
       <c r="H67" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B68" s="0"/>
+      <c r="B68" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C68" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="D68" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>128</v>
       </c>
@@ -2314,15 +2415,21 @@
       <c r="H68" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B69" s="0"/>
+      <c r="B69" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C69" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="D69" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>128</v>
       </c>
@@ -2332,15 +2439,21 @@
       <c r="H69" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B70" s="0"/>
+      <c r="B70" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C70" s="1" t="n">
         <v>69</v>
       </c>
+      <c r="D70" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>128</v>
       </c>
@@ -2350,15 +2463,21 @@
       <c r="H70" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B71" s="0"/>
+      <c r="B71" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C71" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="D71" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>128</v>
       </c>
@@ -2368,15 +2487,21 @@
       <c r="H71" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B72" s="0"/>
+      <c r="B72" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C72" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="D72" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>128</v>
       </c>
@@ -2386,15 +2511,21 @@
       <c r="H72" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B73" s="0"/>
+      <c r="B73" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C73" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="D73" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>128</v>
       </c>
@@ -2404,15 +2535,21 @@
       <c r="H73" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B74" s="0"/>
+      <c r="B74" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C74" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="D74" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>128</v>
       </c>
@@ -2422,15 +2559,21 @@
       <c r="H74" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B75" s="0"/>
+      <c r="B75" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C75" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="D75" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2440,15 +2583,21 @@
       <c r="H75" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B76" s="0"/>
+      <c r="B76" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C76" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="D76" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>128</v>
       </c>
@@ -2458,15 +2607,21 @@
       <c r="H76" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="0"/>
+      <c r="B77" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C77" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="D77" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>128</v>
       </c>
@@ -2476,15 +2631,21 @@
       <c r="H77" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B78" s="0"/>
+      <c r="B78" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C78" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="D78" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>128</v>
       </c>
@@ -2494,15 +2655,21 @@
       <c r="H78" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B79" s="0"/>
+      <c r="B79" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C79" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="D79" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>128</v>
       </c>
@@ -2512,15 +2679,21 @@
       <c r="H79" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B80" s="0"/>
+      <c r="B80" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C80" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="D80" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>128</v>
       </c>
@@ -2530,15 +2703,21 @@
       <c r="H80" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B81" s="0"/>
+      <c r="B81" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C81" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="D81" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>128</v>
       </c>
@@ -2548,15 +2727,21 @@
       <c r="H81" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B82" s="0"/>
+      <c r="B82" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C82" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="D82" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="E82" s="1" t="s">
         <v>128</v>
       </c>
@@ -2566,15 +2751,21 @@
       <c r="H82" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="0"/>
+      <c r="B83" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C83" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="D83" s="0" t="s">
+        <v>139</v>
+      </c>
       <c r="E83" s="1" t="s">
         <v>128</v>
       </c>
@@ -2584,15 +2775,21 @@
       <c r="H83" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B84" s="0"/>
+      <c r="B84" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C84" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="D84" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>128</v>
       </c>
@@ -2602,15 +2799,21 @@
       <c r="H84" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="0"/>
+      <c r="B85" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C85" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="D85" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>128</v>
       </c>
@@ -2620,15 +2823,21 @@
       <c r="H85" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="0"/>
+      <c r="B86" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C86" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="D86" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>128</v>
       </c>
@@ -2638,15 +2847,21 @@
       <c r="H86" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B87" s="0"/>
+      <c r="B87" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C87" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="D87" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>128</v>
       </c>
@@ -2656,15 +2871,21 @@
       <c r="H87" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B88" s="0"/>
+      <c r="B88" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C88" s="1" t="n">
         <v>87</v>
       </c>
+      <c r="D88" s="0" t="s">
+        <v>140</v>
+      </c>
       <c r="E88" s="1" t="s">
         <v>128</v>
       </c>
@@ -2674,15 +2895,21 @@
       <c r="H88" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B89" s="0"/>
+      <c r="B89" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C89" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="D89" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>128</v>
       </c>
@@ -2692,15 +2919,21 @@
       <c r="H89" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B90" s="0"/>
+      <c r="B90" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C90" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="D90" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="E90" s="1" t="s">
         <v>128</v>
       </c>
@@ -2710,15 +2943,21 @@
       <c r="H90" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B91" s="0"/>
+      <c r="B91" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C91" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="D91" s="0" t="s">
+        <v>141</v>
+      </c>
       <c r="E91" s="1" t="s">
         <v>128</v>
       </c>
@@ -2728,15 +2967,21 @@
       <c r="H91" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B92" s="0"/>
+      <c r="B92" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C92" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="D92" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>128</v>
       </c>
@@ -2746,15 +2991,21 @@
       <c r="H92" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B93" s="0"/>
+      <c r="B93" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C93" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="D93" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>128</v>
       </c>
@@ -2764,15 +3015,21 @@
       <c r="H93" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B94" s="0"/>
+      <c r="B94" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C94" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="D94" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="E94" s="1" t="s">
         <v>128</v>
       </c>
@@ -2782,15 +3039,21 @@
       <c r="H94" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B95" s="0"/>
+      <c r="B95" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="C95" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="D95" s="0" t="s">
+        <v>142</v>
+      </c>
       <c r="E95" s="1" t="s">
         <v>128</v>
       </c>
@@ -2800,15 +3063,21 @@
       <c r="H95" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B96" s="0"/>
+      <c r="B96" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C96" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="D96" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="E96" s="1" t="s">
         <v>128</v>
       </c>
@@ -2818,15 +3087,21 @@
       <c r="H96" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B97" s="0"/>
+      <c r="B97" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C97" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="D97" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>128</v>
       </c>
@@ -2836,15 +3111,21 @@
       <c r="H97" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B98" s="0"/>
+      <c r="B98" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C98" s="1" t="n">
         <v>97</v>
       </c>
+      <c r="D98" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>128</v>
       </c>
@@ -2854,15 +3135,21 @@
       <c r="H98" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B99" s="0"/>
+      <c r="B99" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C99" s="1" t="n">
         <v>98</v>
       </c>
+      <c r="D99" s="0" t="s">
+        <v>143</v>
+      </c>
       <c r="E99" s="1" t="s">
         <v>128</v>
       </c>
@@ -2872,15 +3159,21 @@
       <c r="H99" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B100" s="0"/>
+      <c r="B100" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C100" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="D100" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="E100" s="1" t="s">
         <v>128</v>
       </c>
@@ -2890,15 +3183,21 @@
       <c r="H100" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B101" s="0"/>
+      <c r="B101" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C101" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="D101" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>128</v>
       </c>
@@ -2908,15 +3207,21 @@
       <c r="H101" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B102" s="0"/>
+      <c r="B102" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C102" s="1" t="n">
         <v>101</v>
       </c>
+      <c r="D102" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>128</v>
       </c>
@@ -2926,15 +3231,21 @@
       <c r="H102" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B103" s="0"/>
+      <c r="B103" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C103" s="1" t="n">
         <v>102</v>
       </c>
+      <c r="D103" s="0" t="s">
+        <v>144</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>128</v>
       </c>
@@ -2944,15 +3255,21 @@
       <c r="H103" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B104" s="0"/>
+      <c r="B104" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C104" s="1" t="n">
         <v>103</v>
       </c>
+      <c r="D104" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>128</v>
       </c>
@@ -2962,15 +3279,21 @@
       <c r="H104" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B105" s="0"/>
+      <c r="B105" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C105" s="1" t="n">
         <v>104</v>
       </c>
+      <c r="D105" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>128</v>
       </c>
@@ -2980,15 +3303,21 @@
       <c r="H105" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B106" s="0"/>
+      <c r="B106" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C106" s="1" t="n">
         <v>105</v>
       </c>
+      <c r="D106" s="0" t="s">
+        <v>146</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>128</v>
       </c>
@@ -2998,15 +3327,21 @@
       <c r="H106" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B107" s="0"/>
+      <c r="B107" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C107" s="1" t="n">
         <v>106</v>
       </c>
+      <c r="D107" s="0" t="s">
+        <v>147</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>128</v>
       </c>
@@ -3016,15 +3351,21 @@
       <c r="H107" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B108" s="0"/>
+      <c r="B108" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C108" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="D108" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>128</v>
       </c>
@@ -3034,15 +3375,21 @@
       <c r="H108" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B109" s="0"/>
+      <c r="B109" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C109" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="D109" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>128</v>
       </c>
@@ -3052,15 +3399,21 @@
       <c r="H109" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B110" s="0"/>
+      <c r="B110" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C110" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="D110" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>128</v>
       </c>
@@ -3070,15 +3423,21 @@
       <c r="H110" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B111" s="0"/>
+      <c r="B111" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C111" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="D111" s="0" t="s">
+        <v>148</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>128</v>
       </c>
@@ -3088,15 +3447,21 @@
       <c r="H111" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B112" s="0"/>
+      <c r="B112" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C112" s="1" t="n">
         <v>111</v>
       </c>
+      <c r="D112" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>128</v>
       </c>
@@ -3106,15 +3471,21 @@
       <c r="H112" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B113" s="0"/>
+      <c r="B113" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C113" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="D113" s="0" t="s">
+        <v>103</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>128</v>
       </c>
@@ -3124,15 +3495,21 @@
       <c r="H113" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B114" s="0"/>
+      <c r="B114" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C114" s="1" t="n">
         <v>113</v>
       </c>
+      <c r="D114" s="0" t="s">
+        <v>105</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>128</v>
       </c>
@@ -3142,15 +3519,21 @@
       <c r="H114" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B115" s="0"/>
+      <c r="B115" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C115" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="D115" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>128</v>
       </c>
@@ -3160,15 +3543,21 @@
       <c r="H115" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B116" s="0"/>
+      <c r="B116" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C116" s="1" t="n">
         <v>115</v>
       </c>
+      <c r="D116" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>128</v>
       </c>
@@ -3178,15 +3567,21 @@
       <c r="H116" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B117" s="0"/>
+      <c r="B117" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C117" s="1" t="n">
         <v>116</v>
       </c>
+      <c r="D117" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>128</v>
       </c>
@@ -3196,15 +3591,21 @@
       <c r="H117" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B118" s="0"/>
+      <c r="B118" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C118" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="D118" s="0" t="s">
+        <v>111</v>
+      </c>
       <c r="E118" s="1" t="s">
         <v>128</v>
       </c>
@@ -3214,15 +3615,21 @@
       <c r="H118" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B119" s="0"/>
+      <c r="B119" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C119" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="D119" s="0" t="s">
+        <v>113</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>128</v>
       </c>
@@ -3232,15 +3639,21 @@
       <c r="H119" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B120" s="0"/>
+      <c r="B120" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="C120" s="1" t="n">
         <v>119</v>
       </c>
+      <c r="D120" s="0" t="s">
+        <v>115</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>128</v>
       </c>
@@ -3250,15 +3663,21 @@
       <c r="H120" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B121" s="0"/>
+      <c r="B121" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C121" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="D121" s="0" t="s">
+        <v>115</v>
+      </c>
       <c r="E121" s="1" t="s">
         <v>128</v>
       </c>
@@ -3268,15 +3687,21 @@
       <c r="H121" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B122" s="0"/>
+      <c r="B122" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C122" s="1" t="n">
         <v>121</v>
       </c>
+      <c r="D122" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="E122" s="1" t="s">
         <v>128</v>
       </c>
@@ -3286,15 +3711,21 @@
       <c r="H122" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B123" s="0"/>
+      <c r="B123" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C123" s="1" t="n">
         <v>122</v>
       </c>
+      <c r="D123" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="E123" s="1" t="s">
         <v>128</v>
       </c>
@@ -3304,15 +3735,21 @@
       <c r="H123" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B124" s="0"/>
+      <c r="B124" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C124" s="1" t="n">
         <v>123</v>
       </c>
+      <c r="D124" s="0" t="s">
+        <v>150</v>
+      </c>
       <c r="E124" s="1" t="s">
         <v>128</v>
       </c>
@@ -3322,15 +3759,21 @@
       <c r="H124" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B125" s="0"/>
+      <c r="B125" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C125" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="D125" s="0" t="s">
+        <v>151</v>
+      </c>
       <c r="E125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3340,15 +3783,21 @@
       <c r="H125" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B126" s="0"/>
+      <c r="B126" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="C126" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="D126" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>128</v>
       </c>
@@ -3358,6 +3807,7 @@
       <c r="H126" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -3382,7 +3832,7 @@
         <v>129</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -26,6 +26,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7000" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="978">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2442,21 +2444,48 @@
     <t xml:space="preserve">баг1ва</t>
   </si>
   <si>
+    <t xml:space="preserve">разбогатеть между, в чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бзаза</t>
   </si>
   <si>
+    <t xml:space="preserve">жить между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">был</t>
   </si>
   <si>
+    <t xml:space="preserve">гореть между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сжигать что-л. между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">втисаться, втиснуться, кувыркаясь между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бкъа</t>
   </si>
   <si>
+    <t xml:space="preserve">бить, избить кого-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бг1а</t>
   </si>
   <si>
+    <t xml:space="preserve">сгнить между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бц1</t>
   </si>
   <si>
+    <t xml:space="preserve">раздавиться между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">занести кого, что-л. между кем, чем-то</t>
+  </si>
+  <si>
     <t xml:space="preserve">гыл</t>
   </si>
   <si>
@@ -2475,157 +2504,376 @@
     <t xml:space="preserve">гъыз</t>
   </si>
   <si>
+    <t xml:space="preserve">стонать между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">соскоблить что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">гьагьа</t>
   </si>
   <si>
+    <t xml:space="preserve">кружиться между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">закрутиться между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">г1в</t>
   </si>
   <si>
+    <t xml:space="preserve">писать между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">писать что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">г1ват1</t>
   </si>
   <si>
+    <t xml:space="preserve">возиться между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проскользнуть, прошмыгнуть между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">джва</t>
   </si>
   <si>
+    <t xml:space="preserve">вырвать, вырывать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">джвджва</t>
   </si>
   <si>
+    <t xml:space="preserve">плюнуть между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">джь</t>
   </si>
   <si>
+    <t xml:space="preserve">стирать что-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">дз</t>
   </si>
   <si>
+    <t xml:space="preserve">жарить что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">дзах</t>
   </si>
   <si>
+    <t xml:space="preserve">исчезнуть между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шить между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ж</t>
   </si>
   <si>
+    <t xml:space="preserve">копать между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">копать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">просочиться, пролиться (о жидкости) между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">жвагва</t>
   </si>
   <si>
+    <t xml:space="preserve">напихать что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">жв</t>
   </si>
   <si>
+    <t xml:space="preserve">варить что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">загъ</t>
   </si>
   <si>
+    <t xml:space="preserve">успокоиться между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">йы</t>
   </si>
   <si>
+    <t xml:space="preserve">вырасти между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">каца</t>
   </si>
   <si>
+    <t xml:space="preserve">шататься, качаться, трястись между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">кша</t>
   </si>
   <si>
+    <t xml:space="preserve">бить, ударять между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">къ</t>
   </si>
   <si>
+    <t xml:space="preserve">долбить (дерево) между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">къакъ</t>
   </si>
   <si>
+    <t xml:space="preserve">разжевать, разрезать беспорядочно кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кинуть, бросить что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вырубить кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">к1</t>
   </si>
   <si>
+    <t xml:space="preserve">держать кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">к1к1а</t>
   </si>
   <si>
+    <t xml:space="preserve">сверкать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-к1-ны-</t>
   </si>
   <si>
     <t xml:space="preserve">х1а</t>
   </si>
   <si>
+    <t xml:space="preserve">висеть между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">к1ваба</t>
   </si>
   <si>
+    <t xml:space="preserve">купать кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ползти, проползти между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">к1ьазыз</t>
   </si>
   <si>
+    <t xml:space="preserve">дрожать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">наг1а</t>
   </si>
   <si>
+    <t xml:space="preserve">наклониться, прилечь между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-н-</t>
   </si>
   <si>
+    <t xml:space="preserve">работать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ныкъва</t>
   </si>
   <si>
+    <t xml:space="preserve">ходить между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прыгать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">пашаша</t>
   </si>
   <si>
+    <t xml:space="preserve">возиться между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыпать мелкие или сыпучие предметы между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">псапса</t>
   </si>
   <si>
+    <t xml:space="preserve">сыреть между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">пс</t>
   </si>
   <si>
+    <t xml:space="preserve">умереть между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-п-</t>
   </si>
   <si>
     <t xml:space="preserve">тш</t>
   </si>
   <si>
+    <t xml:space="preserve">ломаться между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбить, ломать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">пх-дзы-х1ва</t>
   </si>
   <si>
+    <t xml:space="preserve">потеть между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">непонятно…</t>
   </si>
   <si>
     <t xml:space="preserve">пхха</t>
   </si>
   <si>
+    <t xml:space="preserve">почевать между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">пхьа</t>
   </si>
   <si>
+    <t xml:space="preserve">считать кого, что-л. между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">пхьадза</t>
   </si>
   <si>
+    <t xml:space="preserve">смотреть, разглядывать между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыпаться между кем, чем-л. (о мелких предметах)</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-р-</t>
   </si>
   <si>
+    <t xml:space="preserve">сдавить кого, что-л. между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьарбцIра́</t>
   </si>
   <si>
     <t xml:space="preserve">гъвгъва</t>
   </si>
   <si>
+    <t xml:space="preserve">выпрямить кого, что-л. между кем, чем-л.; избить кого, что-л. между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">къвч1</t>
   </si>
   <si>
+    <t xml:space="preserve">мять, измять кого, что-л. между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стричь что-л. между кем, чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">къьакъьа</t>
   </si>
   <si>
+    <t xml:space="preserve">расплющить что-л. между кем, чем-л.; избить кого-л. между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">растолочь что-л. между чем-л.; избить кого-л. между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вылить что-л. между чем-л. (о густой массе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стричь что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хъа</t>
   </si>
   <si>
+    <t xml:space="preserve">туго завязать, связать кого, что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хъва</t>
   </si>
   <si>
+    <t xml:space="preserve">оскопить, кастрировать кого-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">таскать, волочить кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ча</t>
   </si>
   <si>
+    <t xml:space="preserve">положить что-л. с силой между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ч1аджь</t>
   </si>
   <si>
+    <t xml:space="preserve">ремонтировать что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ч1вач1ва</t>
   </si>
   <si>
+    <t xml:space="preserve">лепить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вносить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-ры-</t>
   </si>
   <si>
     <t xml:space="preserve">багъьа</t>
   </si>
   <si>
+    <t xml:space="preserve">укрепить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">терять, потерять что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">с</t>
   </si>
   <si>
+    <t xml:space="preserve">стегать, выстегать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хвхв</t>
   </si>
   <si>
+    <t xml:space="preserve">сверлить, просверлить что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гнуть что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбить что-д. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ударить, удариться между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">са</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кроить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вывалиться между чем-н. (о густой массе)</t>
   </si>
   <si>
     <t xml:space="preserve">фа</t>
@@ -2877,21 +3125,21 @@
   <dimension ref="A1:I4284"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C529" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="C626" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F659" activeCellId="0" sqref="F659"/>
+      <selection pane="bottomLeft" activeCell="G628" activeCellId="0" sqref="G628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="12.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="6.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="6.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="19.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14484,6 +14732,7 @@
         <v>729</v>
       </c>
       <c r="H502" s="0"/>
+      <c r="I502" s="0"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
@@ -14506,6 +14755,7 @@
         <v>730</v>
       </c>
       <c r="H503" s="0"/>
+      <c r="I503" s="0"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
@@ -14528,6 +14778,7 @@
         <v>731</v>
       </c>
       <c r="H504" s="0"/>
+      <c r="I504" s="0"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="n">
@@ -14550,6 +14801,7 @@
         <v>715</v>
       </c>
       <c r="H505" s="0"/>
+      <c r="I505" s="0"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
@@ -14572,6 +14824,7 @@
         <v>732</v>
       </c>
       <c r="H506" s="0"/>
+      <c r="I506" s="0"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
@@ -14594,6 +14847,7 @@
         <v>734</v>
       </c>
       <c r="H507" s="0"/>
+      <c r="I507" s="0"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
@@ -14616,6 +14870,7 @@
         <v>735</v>
       </c>
       <c r="H508" s="0"/>
+      <c r="I508" s="0"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
@@ -14638,6 +14893,7 @@
         <v>737</v>
       </c>
       <c r="H509" s="0"/>
+      <c r="I509" s="0"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
@@ -14660,6 +14916,7 @@
         <v>739</v>
       </c>
       <c r="H510" s="0"/>
+      <c r="I510" s="0"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
@@ -14682,6 +14939,7 @@
         <v>741</v>
       </c>
       <c r="H511" s="0"/>
+      <c r="I511" s="0"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="n">
@@ -14704,6 +14962,7 @@
         <v>743</v>
       </c>
       <c r="H512" s="0"/>
+      <c r="I512" s="0"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
@@ -14726,6 +14985,7 @@
         <v>745</v>
       </c>
       <c r="H513" s="0"/>
+      <c r="I513" s="0"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
@@ -14748,6 +15008,7 @@
         <v>747</v>
       </c>
       <c r="H514" s="0"/>
+      <c r="I514" s="0"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
@@ -14770,6 +15031,7 @@
         <v>749</v>
       </c>
       <c r="H515" s="0"/>
+      <c r="I515" s="0"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
@@ -14792,6 +15054,7 @@
         <v>751</v>
       </c>
       <c r="H516" s="0"/>
+      <c r="I516" s="0"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="n">
@@ -14814,6 +15077,7 @@
         <v>753</v>
       </c>
       <c r="H517" s="0"/>
+      <c r="I517" s="0"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="n">
@@ -14836,6 +15100,7 @@
         <v>755</v>
       </c>
       <c r="H518" s="0"/>
+      <c r="I518" s="0"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
@@ -14858,6 +15123,7 @@
         <v>757</v>
       </c>
       <c r="H519" s="0"/>
+      <c r="I519" s="0"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
@@ -14880,6 +15146,7 @@
         <v>759</v>
       </c>
       <c r="H520" s="0"/>
+      <c r="I520" s="0"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
@@ -14902,6 +15169,7 @@
         <v>761</v>
       </c>
       <c r="H521" s="0"/>
+      <c r="I521" s="0"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
@@ -14924,6 +15192,7 @@
         <v>764</v>
       </c>
       <c r="H522" s="0"/>
+      <c r="I522" s="0"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
@@ -14946,6 +15215,7 @@
         <v>766</v>
       </c>
       <c r="H523" s="0"/>
+      <c r="I523" s="0"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
@@ -14968,6 +15238,7 @@
         <v>767</v>
       </c>
       <c r="H524" s="0"/>
+      <c r="I524" s="0"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
@@ -14990,6 +15261,7 @@
         <v>769</v>
       </c>
       <c r="H525" s="0"/>
+      <c r="I525" s="0"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
@@ -15012,6 +15284,7 @@
         <v>771</v>
       </c>
       <c r="H526" s="0"/>
+      <c r="I526" s="0"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
@@ -15034,6 +15307,7 @@
         <v>773</v>
       </c>
       <c r="H527" s="0"/>
+      <c r="I527" s="0"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
@@ -15056,6 +15330,7 @@
         <v>775</v>
       </c>
       <c r="H528" s="0"/>
+      <c r="I528" s="0"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
@@ -15078,6 +15353,7 @@
         <v>778</v>
       </c>
       <c r="H529" s="0"/>
+      <c r="I529" s="0"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
@@ -15100,6 +15376,7 @@
         <v>780</v>
       </c>
       <c r="H530" s="0"/>
+      <c r="I530" s="0"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
@@ -15122,6 +15399,7 @@
         <v>782</v>
       </c>
       <c r="H531" s="0"/>
+      <c r="I531" s="0"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
@@ -15144,6 +15422,7 @@
         <v>783</v>
       </c>
       <c r="H532" s="0"/>
+      <c r="I532" s="0"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
@@ -15166,6 +15445,7 @@
         <v>785</v>
       </c>
       <c r="H533" s="0"/>
+      <c r="I533" s="0"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
@@ -15188,6 +15468,7 @@
         <v>787</v>
       </c>
       <c r="H534" s="0"/>
+      <c r="I534" s="0"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
@@ -15210,6 +15491,7 @@
         <v>789</v>
       </c>
       <c r="H535" s="0"/>
+      <c r="I535" s="0"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
@@ -15232,6 +15514,7 @@
         <v>791</v>
       </c>
       <c r="H536" s="0"/>
+      <c r="I536" s="0"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
@@ -15254,6 +15537,7 @@
         <v>793</v>
       </c>
       <c r="H537" s="0"/>
+      <c r="I537" s="0"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
@@ -15276,6 +15560,7 @@
         <v>795</v>
       </c>
       <c r="H538" s="0"/>
+      <c r="I538" s="0"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
@@ -15298,6 +15583,7 @@
         <v>797</v>
       </c>
       <c r="H539" s="0"/>
+      <c r="I539" s="0"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
@@ -15320,6 +15606,7 @@
         <v>799</v>
       </c>
       <c r="H540" s="0"/>
+      <c r="I540" s="0"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
@@ -15338,8 +15625,11 @@
       <c r="F541" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G541" s="0"/>
+      <c r="G541" s="0" t="s">
+        <v>801</v>
+      </c>
       <c r="H541" s="0"/>
+      <c r="I541" s="0"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
@@ -15349,7 +15639,7 @@
         <v>14</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D542" s="0"/>
       <c r="E542" s="4" t="s">
@@ -15358,8 +15648,11 @@
       <c r="F542" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G542" s="0"/>
+      <c r="G542" s="0" t="s">
+        <v>803</v>
+      </c>
       <c r="H542" s="0"/>
+      <c r="I542" s="0"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
@@ -15369,7 +15662,7 @@
         <v>14</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D543" s="0"/>
       <c r="E543" s="4" t="s">
@@ -15378,8 +15671,11 @@
       <c r="F543" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G543" s="0"/>
+      <c r="G543" s="0" t="s">
+        <v>805</v>
+      </c>
       <c r="H543" s="0"/>
+      <c r="I543" s="0"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
@@ -15389,7 +15685,7 @@
         <v>14</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D544" s="0"/>
       <c r="E544" s="4" t="s">
@@ -15398,8 +15694,11 @@
       <c r="F544" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G544" s="0"/>
+      <c r="G544" s="0" t="s">
+        <v>806</v>
+      </c>
       <c r="H544" s="0"/>
+      <c r="I544" s="0"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
@@ -15418,8 +15717,11 @@
       <c r="F545" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G545" s="0"/>
+      <c r="G545" s="0" t="s">
+        <v>807</v>
+      </c>
       <c r="H545" s="0"/>
+      <c r="I545" s="0"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
@@ -15429,7 +15731,7 @@
         <v>14</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D546" s="0"/>
       <c r="E546" s="4" t="s">
@@ -15438,8 +15740,11 @@
       <c r="F546" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G546" s="0"/>
+      <c r="G546" s="0" t="s">
+        <v>809</v>
+      </c>
       <c r="H546" s="0"/>
+      <c r="I546" s="0"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
@@ -15449,7 +15754,7 @@
         <v>14</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D547" s="0"/>
       <c r="E547" s="4" t="s">
@@ -15458,8 +15763,11 @@
       <c r="F547" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G547" s="0"/>
+      <c r="G547" s="0" t="s">
+        <v>811</v>
+      </c>
       <c r="H547" s="0"/>
+      <c r="I547" s="0"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
@@ -15469,7 +15777,7 @@
         <v>14</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D548" s="0"/>
       <c r="E548" s="4" t="s">
@@ -15478,8 +15786,11 @@
       <c r="F548" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G548" s="0"/>
+      <c r="G548" s="0" t="s">
+        <v>813</v>
+      </c>
       <c r="H548" s="0"/>
+      <c r="I548" s="0"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
@@ -15498,8 +15809,11 @@
       <c r="F549" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G549" s="0"/>
+      <c r="G549" s="0" t="s">
+        <v>814</v>
+      </c>
       <c r="H549" s="0"/>
+      <c r="I549" s="0"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
@@ -15509,7 +15823,7 @@
         <v>14</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D550" s="0"/>
       <c r="E550" s="0"/>
@@ -15517,9 +15831,10 @@
         <v>131</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="H550" s="0"/>
+      <c r="I550" s="0"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
@@ -15529,7 +15844,7 @@
         <v>14</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D551" s="0"/>
       <c r="E551" s="4" t="s">
@@ -15539,9 +15854,10 @@
         <v>131</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="H551" s="0"/>
+      <c r="I551" s="0"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
@@ -15551,7 +15867,7 @@
         <v>14</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D552" s="0"/>
       <c r="E552" s="4" t="s">
@@ -15561,9 +15877,10 @@
         <v>131</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="H552" s="0"/>
+      <c r="I552" s="0"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
@@ -15573,7 +15890,7 @@
         <v>14</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="D553" s="0"/>
       <c r="E553" s="4" t="s">
@@ -15582,8 +15899,11 @@
       <c r="F553" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G553" s="0"/>
+      <c r="G553" s="0" t="s">
+        <v>821</v>
+      </c>
       <c r="H553" s="0"/>
+      <c r="I553" s="0"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
@@ -15602,8 +15922,11 @@
       <c r="F554" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G554" s="0"/>
+      <c r="G554" s="0" t="s">
+        <v>822</v>
+      </c>
       <c r="H554" s="0"/>
+      <c r="I554" s="0"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
@@ -15613,7 +15936,7 @@
         <v>14</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="D555" s="0"/>
       <c r="E555" s="4" t="s">
@@ -15622,8 +15945,11 @@
       <c r="F555" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G555" s="0"/>
+      <c r="G555" s="0" t="s">
+        <v>824</v>
+      </c>
       <c r="H555" s="0"/>
+      <c r="I555" s="0"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
@@ -15642,8 +15968,11 @@
       <c r="F556" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G556" s="0"/>
+      <c r="G556" s="0" t="s">
+        <v>825</v>
+      </c>
       <c r="H556" s="0"/>
+      <c r="I556" s="0"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
@@ -15653,7 +15982,7 @@
         <v>14</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="D557" s="0"/>
       <c r="E557" s="4" t="s">
@@ -15662,8 +15991,11 @@
       <c r="F557" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G557" s="0"/>
+      <c r="G557" s="0" t="s">
+        <v>827</v>
+      </c>
       <c r="H557" s="0"/>
+      <c r="I557" s="0"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
@@ -15673,7 +16005,7 @@
         <v>14</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="D558" s="0"/>
       <c r="E558" s="4" t="s">
@@ -15682,8 +16014,11 @@
       <c r="F558" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G558" s="0"/>
+      <c r="G558" s="0" t="s">
+        <v>828</v>
+      </c>
       <c r="H558" s="0"/>
+      <c r="I558" s="0"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
@@ -15693,7 +16028,7 @@
         <v>14</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="D559" s="0"/>
       <c r="E559" s="4" t="s">
@@ -15702,8 +16037,11 @@
       <c r="F559" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G559" s="0"/>
+      <c r="G559" s="0" t="s">
+        <v>830</v>
+      </c>
       <c r="H559" s="0"/>
+      <c r="I559" s="0"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
@@ -15722,8 +16060,11 @@
       <c r="F560" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G560" s="0"/>
+      <c r="G560" s="0" t="s">
+        <v>831</v>
+      </c>
       <c r="H560" s="0"/>
+      <c r="I560" s="0"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
@@ -15733,7 +16074,7 @@
         <v>14</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="D561" s="0"/>
       <c r="E561" s="4" t="s">
@@ -15742,8 +16083,11 @@
       <c r="F561" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G561" s="0"/>
+      <c r="G561" s="0" t="s">
+        <v>833</v>
+      </c>
       <c r="H561" s="0"/>
+      <c r="I561" s="0"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
@@ -15753,7 +16097,7 @@
         <v>14</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="D562" s="0"/>
       <c r="E562" s="4" t="s">
@@ -15762,8 +16106,11 @@
       <c r="F562" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G562" s="0"/>
+      <c r="G562" s="0" t="s">
+        <v>835</v>
+      </c>
       <c r="H562" s="0"/>
+      <c r="I562" s="0"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
@@ -15773,7 +16120,7 @@
         <v>14</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="D563" s="0"/>
       <c r="E563" s="4" t="s">
@@ -15782,8 +16129,11 @@
       <c r="F563" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G563" s="0"/>
+      <c r="G563" s="0" t="s">
+        <v>837</v>
+      </c>
       <c r="H563" s="0"/>
+      <c r="I563" s="0"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
@@ -15793,7 +16143,7 @@
         <v>14</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="D564" s="0"/>
       <c r="E564" s="4" t="s">
@@ -15802,8 +16152,11 @@
       <c r="F564" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G564" s="0"/>
+      <c r="G564" s="0" t="s">
+        <v>839</v>
+      </c>
       <c r="H564" s="0"/>
+      <c r="I564" s="0"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
@@ -15813,7 +16166,7 @@
         <v>14</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="D565" s="0"/>
       <c r="E565" s="4" t="s">
@@ -15822,8 +16175,11 @@
       <c r="F565" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G565" s="0"/>
+      <c r="G565" s="0" t="s">
+        <v>841</v>
+      </c>
       <c r="H565" s="0"/>
+      <c r="I565" s="0"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
@@ -15833,7 +16189,7 @@
         <v>14</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="D566" s="0"/>
       <c r="E566" s="4" t="s">
@@ -15842,8 +16198,11 @@
       <c r="F566" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G566" s="0"/>
+      <c r="G566" s="0" t="s">
+        <v>842</v>
+      </c>
       <c r="H566" s="0"/>
+      <c r="I566" s="0"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
@@ -15853,7 +16212,7 @@
         <v>14</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="D567" s="0"/>
       <c r="E567" s="4" t="s">
@@ -15862,8 +16221,11 @@
       <c r="F567" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G567" s="0"/>
+      <c r="G567" s="0" t="s">
+        <v>843</v>
+      </c>
       <c r="H567" s="0"/>
+      <c r="I567" s="0"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
@@ -15873,7 +16235,7 @@
         <v>14</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="D568" s="0"/>
       <c r="E568" s="4" t="s">
@@ -15882,8 +16244,11 @@
       <c r="F568" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G568" s="0"/>
+      <c r="G568" s="0" t="s">
+        <v>845</v>
+      </c>
       <c r="H568" s="0"/>
+      <c r="I568" s="0"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
@@ -15893,7 +16258,7 @@
         <v>14</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="D569" s="0"/>
       <c r="E569" s="4" t="s">
@@ -15902,8 +16267,11 @@
       <c r="F569" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G569" s="0"/>
+      <c r="G569" s="0" t="s">
+        <v>846</v>
+      </c>
       <c r="H569" s="0"/>
+      <c r="I569" s="0"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
@@ -15922,8 +16290,11 @@
       <c r="F570" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G570" s="0"/>
+      <c r="G570" s="0" t="s">
+        <v>847</v>
+      </c>
       <c r="H570" s="0"/>
+      <c r="I570" s="0"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
@@ -15933,7 +16304,7 @@
         <v>14</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="D571" s="0"/>
       <c r="E571" s="4" t="s">
@@ -15942,8 +16313,11 @@
       <c r="F571" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G571" s="0"/>
+      <c r="G571" s="0" t="s">
+        <v>849</v>
+      </c>
       <c r="H571" s="0"/>
+      <c r="I571" s="0"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
@@ -15953,7 +16327,7 @@
         <v>14</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="D572" s="0"/>
       <c r="E572" s="4" t="s">
@@ -15962,8 +16336,11 @@
       <c r="F572" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G572" s="0"/>
+      <c r="G572" s="0" t="s">
+        <v>851</v>
+      </c>
       <c r="H572" s="0"/>
+      <c r="I572" s="0"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
@@ -15973,7 +16350,7 @@
         <v>14</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="D573" s="0"/>
       <c r="E573" s="4" t="s">
@@ -15982,8 +16359,11 @@
       <c r="F573" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G573" s="0"/>
+      <c r="G573" s="0" t="s">
+        <v>853</v>
+      </c>
       <c r="H573" s="0"/>
+      <c r="I573" s="0"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
@@ -15993,7 +16373,7 @@
         <v>14</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
       <c r="D574" s="0"/>
       <c r="E574" s="4" t="s">
@@ -16002,8 +16382,11 @@
       <c r="F574" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G574" s="0"/>
+      <c r="G574" s="0" t="s">
+        <v>855</v>
+      </c>
       <c r="H574" s="0"/>
+      <c r="I574" s="0"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
@@ -16013,7 +16396,7 @@
         <v>14</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="D575" s="0"/>
       <c r="E575" s="4" t="s">
@@ -16022,8 +16405,11 @@
       <c r="F575" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G575" s="0"/>
+      <c r="G575" s="0" t="s">
+        <v>857</v>
+      </c>
       <c r="H575" s="0"/>
+      <c r="I575" s="0"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
@@ -16033,7 +16419,7 @@
         <v>14</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="D576" s="0"/>
       <c r="E576" s="4" t="s">
@@ -16042,8 +16428,11 @@
       <c r="F576" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G576" s="0"/>
+      <c r="G576" s="0" t="s">
+        <v>859</v>
+      </c>
       <c r="H576" s="0"/>
+      <c r="I576" s="0"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
@@ -16053,7 +16442,7 @@
         <v>14</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="D577" s="0"/>
       <c r="E577" s="4" t="s">
@@ -16062,8 +16451,11 @@
       <c r="F577" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G577" s="0"/>
+      <c r="G577" s="0" t="s">
+        <v>861</v>
+      </c>
       <c r="H577" s="0"/>
+      <c r="I577" s="0"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
@@ -16073,7 +16465,7 @@
         <v>14</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
       <c r="D578" s="0"/>
       <c r="E578" s="4" t="s">
@@ -16082,8 +16474,11 @@
       <c r="F578" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G578" s="0"/>
+      <c r="G578" s="0" t="s">
+        <v>863</v>
+      </c>
       <c r="H578" s="0"/>
+      <c r="I578" s="0"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
@@ -16102,8 +16497,11 @@
       <c r="F579" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G579" s="0"/>
+      <c r="G579" s="0" t="s">
+        <v>864</v>
+      </c>
       <c r="H579" s="0"/>
+      <c r="I579" s="0"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
@@ -16122,8 +16520,11 @@
       <c r="F580" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G580" s="0"/>
+      <c r="G580" s="0" t="s">
+        <v>865</v>
+      </c>
       <c r="H580" s="0"/>
+      <c r="I580" s="0"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
@@ -16133,7 +16534,7 @@
         <v>14</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="D581" s="0"/>
       <c r="E581" s="4" t="s">
@@ -16142,8 +16543,11 @@
       <c r="F581" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G581" s="0"/>
+      <c r="G581" s="0" t="s">
+        <v>867</v>
+      </c>
       <c r="H581" s="0"/>
+      <c r="I581" s="0"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="n">
@@ -16153,7 +16557,7 @@
         <v>14</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="D582" s="0"/>
       <c r="E582" s="4" t="s">
@@ -16162,25 +16566,32 @@
       <c r="F582" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G582" s="0"/>
+      <c r="G582" s="0" t="s">
+        <v>869</v>
+      </c>
       <c r="H582" s="0"/>
+      <c r="I582" s="0"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>831</v>
+        <v>870</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>832</v>
+        <v>871</v>
       </c>
       <c r="D583" s="0"/>
+      <c r="E583" s="0"/>
       <c r="F583" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G583" s="0"/>
+      <c r="G583" s="0" t="s">
+        <v>872</v>
+      </c>
       <c r="H583" s="0"/>
+      <c r="I583" s="0"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
@@ -16190,7 +16601,7 @@
         <v>14</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="D584" s="0"/>
       <c r="E584" s="4" t="s">
@@ -16199,8 +16610,11 @@
       <c r="F584" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G584" s="0"/>
+      <c r="G584" s="0" t="s">
+        <v>874</v>
+      </c>
       <c r="H584" s="0"/>
+      <c r="I584" s="0"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
@@ -16219,8 +16633,11 @@
       <c r="F585" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G585" s="0"/>
+      <c r="G585" s="0" t="s">
+        <v>875</v>
+      </c>
       <c r="H585" s="0"/>
+      <c r="I585" s="0"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
@@ -16230,7 +16647,7 @@
         <v>14</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="D586" s="0"/>
       <c r="E586" s="4" t="s">
@@ -16239,8 +16656,11 @@
       <c r="F586" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G586" s="0"/>
+      <c r="G586" s="0" t="s">
+        <v>877</v>
+      </c>
       <c r="H586" s="0"/>
+      <c r="I586" s="0"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
@@ -16250,7 +16670,7 @@
         <v>14</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>835</v>
+        <v>878</v>
       </c>
       <c r="D587" s="0"/>
       <c r="E587" s="4" t="s">
@@ -16259,15 +16679,18 @@
       <c r="F587" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G587" s="0"/>
+      <c r="G587" s="0" t="s">
+        <v>879</v>
+      </c>
       <c r="H587" s="0"/>
+      <c r="I587" s="0"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>836</v>
+        <v>880</v>
       </c>
       <c r="C588" s="7" t="s">
         <v>214</v>
@@ -16279,8 +16702,11 @@
       <c r="F588" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G588" s="0"/>
+      <c r="G588" s="0" t="s">
+        <v>881</v>
+      </c>
       <c r="H588" s="0"/>
+      <c r="I588" s="0"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
@@ -16290,7 +16716,7 @@
         <v>14</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c r="D589" s="0"/>
       <c r="E589" s="4" t="s">
@@ -16299,8 +16725,11 @@
       <c r="F589" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G589" s="0"/>
+      <c r="G589" s="0" t="s">
+        <v>883</v>
+      </c>
       <c r="H589" s="0"/>
+      <c r="I589" s="0"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="n">
@@ -16319,8 +16748,11 @@
       <c r="F590" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G590" s="0"/>
+      <c r="G590" s="0" t="s">
+        <v>884</v>
+      </c>
       <c r="H590" s="0"/>
+      <c r="I590" s="0"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="n">
@@ -16330,7 +16762,7 @@
         <v>14</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>838</v>
+        <v>885</v>
       </c>
       <c r="D591" s="0"/>
       <c r="E591" s="4" t="s">
@@ -16339,8 +16771,11 @@
       <c r="F591" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G591" s="0"/>
+      <c r="G591" s="0" t="s">
+        <v>886</v>
+      </c>
       <c r="H591" s="0"/>
+      <c r="I591" s="0"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="n">
@@ -16359,8 +16794,11 @@
       <c r="F592" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G592" s="0"/>
+      <c r="G592" s="0" t="s">
+        <v>887</v>
+      </c>
       <c r="H592" s="0"/>
+      <c r="I592" s="0"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="n">
@@ -16370,7 +16808,7 @@
         <v>14</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>839</v>
+        <v>888</v>
       </c>
       <c r="D593" s="0"/>
       <c r="E593" s="4" t="s">
@@ -16379,8 +16817,11 @@
       <c r="F593" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G593" s="0"/>
+      <c r="G593" s="0" t="s">
+        <v>889</v>
+      </c>
       <c r="H593" s="0"/>
+      <c r="I593" s="0"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="n">
@@ -16390,7 +16831,7 @@
         <v>14</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>840</v>
+        <v>890</v>
       </c>
       <c r="D594" s="0"/>
       <c r="E594" s="4" t="s">
@@ -16399,18 +16840,21 @@
       <c r="F594" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G594" s="0"/>
+      <c r="G594" s="0" t="s">
+        <v>891</v>
+      </c>
       <c r="H594" s="0"/>
+      <c r="I594" s="0"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="D595" s="0"/>
       <c r="E595" s="4" t="s">
@@ -16419,18 +16863,21 @@
       <c r="F595" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G595" s="0"/>
+      <c r="G595" s="0" t="s">
+        <v>894</v>
+      </c>
       <c r="H595" s="0"/>
+      <c r="I595" s="0"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="n">
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="D596" s="0"/>
       <c r="E596" s="4" t="s">
@@ -16439,8 +16886,11 @@
       <c r="F596" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G596" s="0"/>
+      <c r="G596" s="0" t="s">
+        <v>895</v>
+      </c>
       <c r="H596" s="0"/>
+      <c r="I596" s="0"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
@@ -16450,7 +16900,7 @@
         <v>14</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>843</v>
+        <v>896</v>
       </c>
       <c r="D597" s="0"/>
       <c r="E597" s="4" t="s">
@@ -16459,10 +16909,12 @@
       <c r="F597" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G597" s="0"/>
+      <c r="G597" s="0" t="s">
+        <v>897</v>
+      </c>
       <c r="H597" s="0"/>
       <c r="I597" s="4" t="s">
-        <v>844</v>
+        <v>898</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16473,7 +16925,7 @@
         <v>14</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="D598" s="0"/>
       <c r="E598" s="4" t="s">
@@ -16482,7 +16934,9 @@
       <c r="F598" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G598" s="0"/>
+      <c r="G598" s="0" t="s">
+        <v>900</v>
+      </c>
       <c r="H598" s="0"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16493,7 +16947,7 @@
         <v>14</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>846</v>
+        <v>901</v>
       </c>
       <c r="D599" s="0"/>
       <c r="E599" s="4" t="s">
@@ -16502,7 +16956,9 @@
       <c r="F599" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G599" s="0"/>
+      <c r="G599" s="0" t="s">
+        <v>902</v>
+      </c>
       <c r="H599" s="0"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16513,7 +16969,7 @@
         <v>14</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>847</v>
+        <v>903</v>
       </c>
       <c r="D600" s="0"/>
       <c r="E600" s="4" t="s">
@@ -16522,7 +16978,9 @@
       <c r="F600" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G600" s="0"/>
+      <c r="G600" s="0" t="s">
+        <v>904</v>
+      </c>
       <c r="H600" s="0"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16542,7 +17000,9 @@
       <c r="F601" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G601" s="0"/>
+      <c r="G601" s="0" t="s">
+        <v>905</v>
+      </c>
       <c r="H601" s="0"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16562,7 +17022,9 @@
       <c r="F602" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G602" s="0"/>
+      <c r="G602" s="0" t="s">
+        <v>905</v>
+      </c>
       <c r="H602" s="0"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16570,10 +17032,10 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D603" s="0"/>
       <c r="E603" s="4" t="s">
@@ -16582,9 +17044,11 @@
       <c r="F603" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G603" s="0"/>
+      <c r="G603" s="0" t="s">
+        <v>907</v>
+      </c>
       <c r="H603" s="8" t="s">
-        <v>849</v>
+        <v>908</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16592,10 +17056,10 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>850</v>
+        <v>909</v>
       </c>
       <c r="D604" s="0"/>
       <c r="E604" s="4" t="s">
@@ -16604,7 +17068,9 @@
       <c r="F604" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G604" s="0"/>
+      <c r="G604" s="0" t="s">
+        <v>910</v>
+      </c>
       <c r="H604" s="0"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16612,7 +17078,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C605" s="7" t="s">
         <v>763</v>
@@ -16624,7 +17090,9 @@
       <c r="F605" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G605" s="0"/>
+      <c r="G605" s="0" t="s">
+        <v>865</v>
+      </c>
       <c r="H605" s="0"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16632,10 +17100,10 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>851</v>
+        <v>911</v>
       </c>
       <c r="D606" s="0"/>
       <c r="E606" s="4" t="s">
@@ -16644,7 +17112,9 @@
       <c r="F606" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G606" s="0"/>
+      <c r="G606" s="0" t="s">
+        <v>912</v>
+      </c>
       <c r="H606" s="0"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16652,7 +17122,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C607" s="7" t="s">
         <v>765</v>
@@ -16664,7 +17134,9 @@
       <c r="F607" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G607" s="0"/>
+      <c r="G607" s="0" t="s">
+        <v>913</v>
+      </c>
       <c r="H607" s="0"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16672,10 +17144,10 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>852</v>
+        <v>914</v>
       </c>
       <c r="D608" s="0"/>
       <c r="E608" s="4" t="s">
@@ -16684,7 +17156,9 @@
       <c r="F608" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G608" s="0"/>
+      <c r="G608" s="0" t="s">
+        <v>915</v>
+      </c>
       <c r="H608" s="0"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16692,7 +17166,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C609" s="7" t="s">
         <v>768</v>
@@ -16704,7 +17178,9 @@
       <c r="F609" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G609" s="0"/>
+      <c r="G609" s="0" t="s">
+        <v>916</v>
+      </c>
       <c r="H609" s="0"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16712,7 +17188,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>779</v>
@@ -16724,7 +17200,9 @@
       <c r="F610" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G610" s="0"/>
+      <c r="G610" s="0" t="s">
+        <v>917</v>
+      </c>
       <c r="H610" s="0"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16732,7 +17210,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C611" s="7" t="s">
         <v>772</v>
@@ -16744,7 +17222,9 @@
       <c r="F611" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G611" s="0"/>
+      <c r="G611" s="0" t="s">
+        <v>918</v>
+      </c>
       <c r="H611" s="0"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16752,10 +17232,10 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>853</v>
+        <v>919</v>
       </c>
       <c r="D612" s="0"/>
       <c r="E612" s="4" t="s">
@@ -16764,7 +17244,9 @@
       <c r="F612" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G612" s="0"/>
+      <c r="G612" s="0" t="s">
+        <v>920</v>
+      </c>
       <c r="H612" s="0"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16772,10 +17254,10 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>854</v>
+        <v>921</v>
       </c>
       <c r="D613" s="0"/>
       <c r="E613" s="4" t="s">
@@ -16784,7 +17266,9 @@
       <c r="F613" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G613" s="0"/>
+      <c r="G613" s="0" t="s">
+        <v>922</v>
+      </c>
       <c r="H613" s="0"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16792,7 +17276,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C614" s="7" t="s">
         <v>774</v>
@@ -16804,7 +17288,9 @@
       <c r="F614" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G614" s="0"/>
+      <c r="G614" s="0" t="s">
+        <v>923</v>
+      </c>
       <c r="H614" s="0"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16812,10 +17298,10 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>855</v>
+        <v>924</v>
       </c>
       <c r="D615" s="0"/>
       <c r="E615" s="4" t="s">
@@ -16824,7 +17310,9 @@
       <c r="F615" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G615" s="0"/>
+      <c r="G615" s="0" t="s">
+        <v>925</v>
+      </c>
       <c r="H615" s="0"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16832,10 +17320,10 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>856</v>
+        <v>926</v>
       </c>
       <c r="D616" s="0"/>
       <c r="E616" s="4" t="s">
@@ -16844,7 +17332,9 @@
       <c r="F616" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G616" s="0"/>
+      <c r="G616" s="0" t="s">
+        <v>927</v>
+      </c>
       <c r="H616" s="0"/>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16852,10 +17342,10 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
       <c r="D617" s="0"/>
       <c r="E617" s="4" t="s">
@@ -16864,7 +17354,9 @@
       <c r="F617" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G617" s="0"/>
+      <c r="G617" s="0" t="s">
+        <v>929</v>
+      </c>
       <c r="H617" s="0"/>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16872,7 +17364,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="C618" s="7" t="s">
         <v>794</v>
@@ -16884,7 +17376,9 @@
       <c r="F618" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G618" s="0"/>
+      <c r="G618" s="0" t="s">
+        <v>930</v>
+      </c>
       <c r="H618" s="0"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16892,10 +17386,10 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>859</v>
+        <v>932</v>
       </c>
       <c r="D619" s="0"/>
       <c r="E619" s="4" t="s">
@@ -16904,7 +17398,9 @@
       <c r="F619" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G619" s="0"/>
+      <c r="G619" s="0" t="s">
+        <v>933</v>
+      </c>
       <c r="H619" s="0"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16912,10 +17408,10 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="D620" s="0"/>
       <c r="E620" s="4" t="s">
@@ -16924,7 +17420,9 @@
       <c r="F620" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G620" s="0"/>
+      <c r="G620" s="0" t="s">
+        <v>934</v>
+      </c>
       <c r="H620" s="0"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16932,10 +17430,10 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>860</v>
+        <v>935</v>
       </c>
       <c r="D621" s="0"/>
       <c r="E621" s="4" t="s">
@@ -16944,7 +17442,9 @@
       <c r="F621" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G621" s="0"/>
+      <c r="G621" s="0" t="s">
+        <v>936</v>
+      </c>
       <c r="H621" s="0"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16952,10 +17452,10 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>861</v>
+        <v>937</v>
       </c>
       <c r="D622" s="0"/>
       <c r="E622" s="4" t="s">
@@ -16964,7 +17464,9 @@
       <c r="F622" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G622" s="0"/>
+      <c r="G622" s="0" t="s">
+        <v>938</v>
+      </c>
       <c r="H622" s="0"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16972,10 +17474,10 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>854</v>
+        <v>921</v>
       </c>
       <c r="D623" s="0"/>
       <c r="E623" s="4" t="s">
@@ -16984,7 +17486,9 @@
       <c r="F623" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G623" s="0"/>
+      <c r="G623" s="0" t="s">
+        <v>939</v>
+      </c>
       <c r="H623" s="0"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16992,7 +17496,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="C624" s="7" t="s">
         <v>777</v>
@@ -17004,7 +17508,9 @@
       <c r="F624" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G624" s="0"/>
+      <c r="G624" s="0" t="s">
+        <v>940</v>
+      </c>
       <c r="H624" s="0"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17015,7 +17521,7 @@
         <v>14</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>860</v>
+        <v>935</v>
       </c>
       <c r="D625" s="0"/>
       <c r="E625" s="4" t="s">
@@ -17024,7 +17530,9 @@
       <c r="F625" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G625" s="0"/>
+      <c r="G625" s="0" t="s">
+        <v>941</v>
+      </c>
       <c r="H625" s="0"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17035,7 +17543,7 @@
         <v>14</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>862</v>
+        <v>942</v>
       </c>
       <c r="D626" s="0"/>
       <c r="E626" s="4" t="s">
@@ -17044,7 +17552,9 @@
       <c r="F626" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G626" s="0"/>
+      <c r="G626" s="0" t="s">
+        <v>943</v>
+      </c>
       <c r="H626" s="0"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17064,7 +17574,9 @@
       <c r="F627" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G627" s="0"/>
+      <c r="G627" s="0" t="s">
+        <v>944</v>
+      </c>
       <c r="H627" s="0"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17095,7 +17607,7 @@
         <v>14</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>863</v>
+        <v>945</v>
       </c>
       <c r="D629" s="0"/>
       <c r="E629" s="4" t="s">
@@ -17215,7 +17727,7 @@
         <v>14</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>864</v>
+        <v>946</v>
       </c>
       <c r="D635" s="0"/>
       <c r="E635" s="4" t="s">
@@ -17235,7 +17747,7 @@
         <v>14</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>865</v>
+        <v>947</v>
       </c>
       <c r="D636" s="0"/>
       <c r="E636" s="4" t="s">
@@ -17255,7 +17767,7 @@
         <v>14</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>866</v>
+        <v>948</v>
       </c>
       <c r="D637" s="0"/>
       <c r="E637" s="4" t="s">
@@ -17295,7 +17807,7 @@
         <v>14</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>854</v>
+        <v>921</v>
       </c>
       <c r="D639" s="0"/>
       <c r="E639" s="4" t="s">
@@ -17315,7 +17827,7 @@
         <v>14</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>867</v>
+        <v>949</v>
       </c>
       <c r="D640" s="0"/>
       <c r="E640" s="4" t="s">
@@ -17355,7 +17867,7 @@
         <v>14</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>868</v>
+        <v>950</v>
       </c>
       <c r="D642" s="0"/>
       <c r="E642" s="4" t="s">
@@ -17375,7 +17887,7 @@
         <v>14</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>869</v>
+        <v>951</v>
       </c>
       <c r="D643" s="0"/>
       <c r="E643" s="4" t="s">
@@ -17435,7 +17947,7 @@
         <v>14</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>855</v>
+        <v>924</v>
       </c>
       <c r="D646" s="0"/>
       <c r="E646" s="4" t="s">
@@ -17455,7 +17967,7 @@
         <v>14</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>870</v>
+        <v>952</v>
       </c>
       <c r="D647" s="0"/>
       <c r="E647" s="4" t="s">
@@ -17475,7 +17987,7 @@
         <v>14</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="D648" s="0"/>
       <c r="E648" s="4" t="s">
@@ -17495,7 +18007,7 @@
         <v>14</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>872</v>
+        <v>954</v>
       </c>
       <c r="D649" s="0"/>
       <c r="E649" s="4" t="s">
@@ -17515,7 +18027,7 @@
         <v>14</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>872</v>
+        <v>954</v>
       </c>
       <c r="D650" s="0"/>
       <c r="E650" s="4" t="s">
@@ -17535,7 +18047,7 @@
         <v>14</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="D651" s="0"/>
       <c r="E651" s="4" t="s">
@@ -17555,7 +18067,7 @@
         <v>14</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="D652" s="0"/>
       <c r="E652" s="4" t="s">
@@ -17578,6 +18090,7 @@
         <v>792</v>
       </c>
       <c r="D653" s="0"/>
+      <c r="E653" s="0"/>
       <c r="F653" s="0" t="s">
         <v>131</v>
       </c>
@@ -17632,7 +18145,7 @@
         <v>14</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
       <c r="D656" s="0"/>
       <c r="E656" s="4" t="s">
@@ -17652,7 +18165,7 @@
         <v>14</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>874</v>
+        <v>956</v>
       </c>
       <c r="D657" s="0"/>
       <c r="E657" s="4" t="s">
@@ -17672,7 +18185,7 @@
         <v>14</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>874</v>
+        <v>956</v>
       </c>
       <c r="D658" s="0"/>
       <c r="E658" s="4" t="s">
@@ -17692,7 +18205,7 @@
         <v>14</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>875</v>
+        <v>957</v>
       </c>
       <c r="D659" s="0"/>
       <c r="E659" s="4" t="s">
@@ -17712,7 +18225,7 @@
         <v>14</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>876</v>
+        <v>958</v>
       </c>
       <c r="D660" s="0"/>
       <c r="E660" s="4" t="s">
@@ -17732,7 +18245,7 @@
         <v>14</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>876</v>
+        <v>958</v>
       </c>
       <c r="D661" s="0"/>
       <c r="E661" s="4" t="s">
@@ -17792,7 +18305,7 @@
         <v>14</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>877</v>
+        <v>959</v>
       </c>
       <c r="D664" s="0"/>
       <c r="E664" s="4" t="s">
@@ -17812,7 +18325,7 @@
         <v>14</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>877</v>
+        <v>959</v>
       </c>
       <c r="D665" s="0"/>
       <c r="E665" s="4" t="s">
@@ -17832,7 +18345,7 @@
         <v>14</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>878</v>
+        <v>960</v>
       </c>
       <c r="D666" s="0"/>
       <c r="E666" s="4" t="s">
@@ -17852,7 +18365,7 @@
         <v>14</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>879</v>
+        <v>961</v>
       </c>
       <c r="D667" s="0"/>
       <c r="E667" s="4" t="s">
@@ -17892,7 +18405,7 @@
         <v>14</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>880</v>
+        <v>962</v>
       </c>
       <c r="D669" s="0"/>
       <c r="E669" s="4" t="s">
@@ -17912,7 +18425,7 @@
         <v>659</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>881</v>
+        <v>963</v>
       </c>
       <c r="D670" s="0"/>
       <c r="E670" s="4" t="s">
@@ -17930,7 +18443,7 @@
         <v>659</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D671" s="0"/>
       <c r="E671" s="4" t="s">
@@ -18002,7 +18515,7 @@
         <v>403</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="D675" s="0"/>
       <c r="E675" s="4" t="s">
@@ -18038,7 +18551,7 @@
         <v>659</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>882</v>
+        <v>964</v>
       </c>
       <c r="D677" s="0"/>
       <c r="E677" s="4" t="s">
@@ -18056,7 +18569,7 @@
         <v>403</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>883</v>
+        <v>965</v>
       </c>
       <c r="D678" s="0"/>
       <c r="E678" s="4" t="s">
@@ -18074,7 +18587,7 @@
         <v>659</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="D679" s="0"/>
       <c r="E679" s="4" t="s">
@@ -18110,7 +18623,7 @@
         <v>659</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>884</v>
+        <v>966</v>
       </c>
       <c r="D681" s="0"/>
       <c r="E681" s="4" t="s">
@@ -18529,7 +19042,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>885</v>
+        <v>967</v>
       </c>
       <c r="C707" s="7"/>
       <c r="D707" s="0"/>
@@ -18545,7 +19058,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>886</v>
+        <v>968</v>
       </c>
       <c r="C708" s="7"/>
       <c r="D708" s="0"/>
@@ -18561,7 +19074,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>886</v>
+        <v>968</v>
       </c>
       <c r="C709" s="7"/>
       <c r="D709" s="0"/>
@@ -18577,7 +19090,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>885</v>
+        <v>967</v>
       </c>
       <c r="C710" s="7"/>
       <c r="D710" s="0"/>
@@ -18593,7 +19106,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>885</v>
+        <v>967</v>
       </c>
       <c r="C711" s="7"/>
       <c r="D711" s="0"/>
@@ -18609,7 +19122,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>885</v>
+        <v>967</v>
       </c>
       <c r="C712" s="7"/>
       <c r="D712" s="0"/>
@@ -18625,7 +19138,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>886</v>
+        <v>968</v>
       </c>
       <c r="C713" s="7"/>
       <c r="D713" s="0"/>
@@ -18641,7 +19154,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>885</v>
+        <v>967</v>
       </c>
       <c r="C714" s="7"/>
       <c r="D714" s="0"/>
@@ -19713,7 +20226,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>887</v>
+        <v>969</v>
       </c>
       <c r="C781" s="7"/>
       <c r="D781" s="0"/>
@@ -19729,7 +20242,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>887</v>
+        <v>969</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="0"/>
@@ -19745,7 +20258,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>888</v>
+        <v>970</v>
       </c>
       <c r="C783" s="7"/>
       <c r="D783" s="0"/>
@@ -19761,7 +20274,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>889</v>
+        <v>971</v>
       </c>
       <c r="C784" s="7"/>
       <c r="D784" s="0"/>
@@ -19777,7 +20290,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>889</v>
+        <v>971</v>
       </c>
       <c r="C785" s="7"/>
       <c r="D785" s="0"/>
@@ -19809,7 +20322,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>890</v>
+        <v>972</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>214</v>
@@ -19818,7 +20331,7 @@
       <c r="E787" s="0"/>
       <c r="F787" s="0"/>
       <c r="G787" s="4" t="s">
-        <v>891</v>
+        <v>973</v>
       </c>
       <c r="H787" s="0"/>
     </row>
@@ -19827,7 +20340,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>890</v>
+        <v>972</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>214</v>
@@ -19838,7 +20351,7 @@
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="4" t="s">
-        <v>892</v>
+        <v>974</v>
       </c>
       <c r="H788" s="5"/>
     </row>
@@ -19847,7 +20360,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>893</v>
+        <v>975</v>
       </c>
       <c r="C789" s="9"/>
       <c r="D789" s="5"/>
@@ -19863,7 +20376,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>889</v>
+        <v>971</v>
       </c>
       <c r="C790" s="9"/>
       <c r="D790" s="5"/>
@@ -19879,7 +20392,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>889</v>
+        <v>971</v>
       </c>
       <c r="C791" s="9"/>
       <c r="D791" s="5"/>
@@ -19895,10 +20408,10 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>894</v>
+        <v>976</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="4" t="s">
@@ -19908,7 +20421,7 @@
         <v>12</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>895</v>
+        <v>977</v>
       </c>
       <c r="H792" s="5"/>
     </row>

--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -28,6 +28,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="1071">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2876,76 +2878,355 @@
     <t xml:space="preserve">вывалиться между чем-н. (о густой массе)</t>
   </si>
   <si>
+    <t xml:space="preserve">выть между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">фа</t>
   </si>
   <si>
+    <t xml:space="preserve">есть, кушать что-л. между кем, чем-н.; промотать что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кушать что-л. между кем, чем-н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">косить что-л. между чем-н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">растолочь что-л. между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быстро вбежать между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разрезать что-. (на мелкие части) между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хч1</t>
   </si>
   <si>
+    <t xml:space="preserve">разбиться между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хы-с</t>
   </si>
   <si>
+    <t xml:space="preserve">стрелять между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хварзза</t>
   </si>
   <si>
+    <t xml:space="preserve">парить и кружиться между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">капать между кем, чем-н. (о брызгах жидкости)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">душить кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хъванч</t>
   </si>
   <si>
+    <t xml:space="preserve">крутиться между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбиться, разрушиться между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хъвмар</t>
   </si>
   <si>
+    <t xml:space="preserve">играть, шалить между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">хьа</t>
   </si>
   <si>
+    <t xml:space="preserve">рожать между кем, чем-н.; отелиться между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затащить кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">загнать кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть, кушать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">чпа</t>
   </si>
   <si>
+    <t xml:space="preserve">сделать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">чва</t>
   </si>
   <si>
+    <t xml:space="preserve">вылить, пролить (о жидкости) между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">чв</t>
   </si>
   <si>
+    <t xml:space="preserve">cтрогать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спать между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вылить что-л. (жидкое) между кем, чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">чважва</t>
   </si>
   <si>
+    <t xml:space="preserve">разговаривать между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">находиться, сидеть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сидеть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">течь, просочиться между кем. чем-л. (о жидкости)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прилепиться между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ш</t>
   </si>
   <si>
+    <t xml:space="preserve">раскалиться между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лаять между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ша</t>
   </si>
   <si>
+    <t xml:space="preserve">делить что-л. между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">шах</t>
   </si>
   <si>
+    <t xml:space="preserve">гореть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сжигать что-л. между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">упасть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">появиться, оказаться между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">шв</t>
   </si>
   <si>
+    <t xml:space="preserve">замерзнуть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нарывать между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">швшв</t>
   </si>
   <si>
+    <t xml:space="preserve">свистеть между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">щ</t>
   </si>
   <si>
+    <t xml:space="preserve">убить кого-л. между кем. чем-л.; заколоть кого-л. между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">втиснуться, пробраться между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">щых</t>
   </si>
   <si>
+    <t xml:space="preserve">замазать, отштукатурить что-л. между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бга</t>
   </si>
   <si>
+    <t xml:space="preserve">обрушиться из промежутка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гнить, загноить между чем.-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вывернуться, кувыркаясь между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вынести кого, что-л. из промежуточного пространства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выскоблить что-л.  между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вывертеться  между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выскользнуть  между чем-то.</t>
+  </si>
+  <si>
     <t xml:space="preserve">жва</t>
   </si>
   <si>
+    <t xml:space="preserve">вырвать что-л.  между чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">жвжва</t>
   </si>
   <si>
+    <t xml:space="preserve">вырывать что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вырезать что-л. проскочить между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проскочить между кем. чем-л.</t>
+  </si>
+  <si>
     <t xml:space="preserve">к1вк1ва</t>
   </si>
   <si>
+    <t xml:space="preserve">исчезнуть между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проползти между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вымести, подмести что-л. между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смотреть между кем. чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">высыпаться между кем. чем-л. (о мелких предметах)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бжьы-р-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гноить что-л. между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">облизывать что-л. между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выпрямить что-д. между чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вырезать что-л. между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выстричь (шерсть, волосы) между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выбить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быжь-ры-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вычистить что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бжьы-ры-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цкьа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пройти, проехать, пролететь между чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пройти между чем-л. (о времени)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вывалиться между чем-то (о густой массе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отдаваться холодом (между чем-то)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">распространяться между чем-то (о запахе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вытащить кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прогнать кого, что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выстрогать что-л. между кем, чем-н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">протекать между чем-л. (о жидкости)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">произойти, случиться между кем, чем-л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">макать что-л. между чем-н.</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-к1ы-н-</t>
   </si>
   <si>
+    <t xml:space="preserve">гва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">столкнуть, стащить кого что-л. между кем, чем-н. (сверху вниз)</t>
+  </si>
+  <si>
     <t xml:space="preserve">бжьа-к1ы-ны-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гьажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скатиться между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спрыгнуть между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смести что-л. между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смотреть между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыпаться, падать между чем-л. (сверху вниз) (о мелких предметах)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">висеть между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">согнать кого, что-л. между чем-л. (сверху вниз)</t>
   </si>
   <si>
     <t xml:space="preserve">гва-</t>
@@ -3125,21 +3406,21 @@
   <dimension ref="A1:I4284"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C626" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="C703" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G628" activeCellId="0" sqref="G628"/>
+      <selection pane="bottomLeft" activeCell="G715" activeCellId="0" sqref="G715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="6.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17596,7 +17877,9 @@
       <c r="F628" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G628" s="0"/>
+      <c r="G628" s="0" t="s">
+        <v>945</v>
+      </c>
       <c r="H628" s="0"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17607,7 +17890,7 @@
         <v>14</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D629" s="0"/>
       <c r="E629" s="4" t="s">
@@ -17616,7 +17899,9 @@
       <c r="F629" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G629" s="0"/>
+      <c r="G629" s="0" t="s">
+        <v>947</v>
+      </c>
       <c r="H629" s="0"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17636,7 +17921,9 @@
       <c r="F630" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G630" s="0"/>
+      <c r="G630" s="0" t="s">
+        <v>948</v>
+      </c>
       <c r="H630" s="0"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17656,7 +17943,9 @@
       <c r="F631" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G631" s="0"/>
+      <c r="G631" s="0" t="s">
+        <v>949</v>
+      </c>
       <c r="H631" s="0"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17676,7 +17965,9 @@
       <c r="F632" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G632" s="0"/>
+      <c r="G632" s="0" t="s">
+        <v>950</v>
+      </c>
       <c r="H632" s="0"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17696,7 +17987,9 @@
       <c r="F633" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G633" s="0"/>
+      <c r="G633" s="0" t="s">
+        <v>951</v>
+      </c>
       <c r="H633" s="0"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17716,7 +18009,9 @@
       <c r="F634" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G634" s="0"/>
+      <c r="G634" s="0" t="s">
+        <v>952</v>
+      </c>
       <c r="H634" s="0"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17727,7 +18022,7 @@
         <v>14</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D635" s="0"/>
       <c r="E635" s="4" t="s">
@@ -17736,7 +18031,9 @@
       <c r="F635" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G635" s="0"/>
+      <c r="G635" s="0" t="s">
+        <v>954</v>
+      </c>
       <c r="H635" s="0"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17747,7 +18044,7 @@
         <v>14</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="D636" s="0"/>
       <c r="E636" s="4" t="s">
@@ -17756,7 +18053,9 @@
       <c r="F636" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G636" s="0"/>
+      <c r="G636" s="0" t="s">
+        <v>956</v>
+      </c>
       <c r="H636" s="0"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17767,7 +18066,7 @@
         <v>14</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="D637" s="0"/>
       <c r="E637" s="4" t="s">
@@ -17776,7 +18075,9 @@
       <c r="F637" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G637" s="0"/>
+      <c r="G637" s="0" t="s">
+        <v>958</v>
+      </c>
       <c r="H637" s="0"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17796,7 +18097,9 @@
       <c r="F638" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G638" s="0"/>
+      <c r="G638" s="0" t="s">
+        <v>959</v>
+      </c>
       <c r="H638" s="0"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17816,7 +18119,9 @@
       <c r="F639" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G639" s="0"/>
+      <c r="G639" s="0" t="s">
+        <v>960</v>
+      </c>
       <c r="H639" s="0"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17827,7 +18132,7 @@
         <v>14</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="D640" s="0"/>
       <c r="E640" s="4" t="s">
@@ -17836,7 +18141,9 @@
       <c r="F640" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G640" s="0"/>
+      <c r="G640" s="0" t="s">
+        <v>962</v>
+      </c>
       <c r="H640" s="0"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17856,7 +18163,9 @@
       <c r="F641" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G641" s="0"/>
+      <c r="G641" s="0" t="s">
+        <v>963</v>
+      </c>
       <c r="H641" s="0"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17867,7 +18176,7 @@
         <v>14</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="D642" s="0"/>
       <c r="E642" s="4" t="s">
@@ -17876,7 +18185,9 @@
       <c r="F642" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G642" s="0"/>
+      <c r="G642" s="0" t="s">
+        <v>965</v>
+      </c>
       <c r="H642" s="0"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17887,7 +18198,7 @@
         <v>14</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D643" s="0"/>
       <c r="E643" s="4" t="s">
@@ -17896,7 +18207,9 @@
       <c r="F643" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G643" s="0"/>
+      <c r="G643" s="0" t="s">
+        <v>967</v>
+      </c>
       <c r="H643" s="0"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17916,7 +18229,9 @@
       <c r="F644" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G644" s="0"/>
+      <c r="G644" s="0" t="s">
+        <v>968</v>
+      </c>
       <c r="H644" s="0"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17936,7 +18251,9 @@
       <c r="F645" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G645" s="0"/>
+      <c r="G645" s="0" t="s">
+        <v>969</v>
+      </c>
       <c r="H645" s="0"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17956,7 +18273,9 @@
       <c r="F646" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G646" s="0"/>
+      <c r="G646" s="0" t="s">
+        <v>970</v>
+      </c>
       <c r="H646" s="0"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17967,7 +18286,7 @@
         <v>14</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="D647" s="0"/>
       <c r="E647" s="4" t="s">
@@ -17976,7 +18295,9 @@
       <c r="F647" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G647" s="0"/>
+      <c r="G647" s="0" t="s">
+        <v>972</v>
+      </c>
       <c r="H647" s="0"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17987,7 +18308,7 @@
         <v>14</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="D648" s="0"/>
       <c r="E648" s="4" t="s">
@@ -17996,7 +18317,9 @@
       <c r="F648" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G648" s="0"/>
+      <c r="G648" s="0" t="s">
+        <v>974</v>
+      </c>
       <c r="H648" s="0"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18007,7 +18330,7 @@
         <v>14</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="D649" s="0"/>
       <c r="E649" s="4" t="s">
@@ -18016,7 +18339,9 @@
       <c r="F649" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G649" s="0"/>
+      <c r="G649" s="0" t="s">
+        <v>976</v>
+      </c>
       <c r="H649" s="0"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18027,7 +18352,7 @@
         <v>14</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="D650" s="0"/>
       <c r="E650" s="4" t="s">
@@ -18036,7 +18361,9 @@
       <c r="F650" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G650" s="0"/>
+      <c r="G650" s="0" t="s">
+        <v>977</v>
+      </c>
       <c r="H650" s="0"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18047,7 +18374,7 @@
         <v>14</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="D651" s="0"/>
       <c r="E651" s="4" t="s">
@@ -18056,7 +18383,9 @@
       <c r="F651" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G651" s="0"/>
+      <c r="G651" s="0" t="s">
+        <v>978</v>
+      </c>
       <c r="H651" s="0"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18067,7 +18396,7 @@
         <v>14</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="D652" s="0"/>
       <c r="E652" s="4" t="s">
@@ -18076,7 +18405,9 @@
       <c r="F652" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G652" s="0"/>
+      <c r="G652" s="0" t="s">
+        <v>980</v>
+      </c>
       <c r="H652" s="0"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18094,7 +18425,9 @@
       <c r="F653" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G653" s="0"/>
+      <c r="G653" s="0" t="s">
+        <v>981</v>
+      </c>
       <c r="H653" s="0"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18114,7 +18447,9 @@
       <c r="F654" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G654" s="0"/>
+      <c r="G654" s="0" t="s">
+        <v>982</v>
+      </c>
       <c r="H654" s="0"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18134,7 +18469,9 @@
       <c r="F655" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G655" s="0"/>
+      <c r="G655" s="0" t="s">
+        <v>983</v>
+      </c>
       <c r="H655" s="0"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18154,7 +18491,9 @@
       <c r="F656" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G656" s="0"/>
+      <c r="G656" s="0" t="s">
+        <v>984</v>
+      </c>
       <c r="H656" s="0"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18165,7 +18504,7 @@
         <v>14</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D657" s="0"/>
       <c r="E657" s="4" t="s">
@@ -18174,7 +18513,9 @@
       <c r="F657" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G657" s="0"/>
+      <c r="G657" s="0" t="s">
+        <v>986</v>
+      </c>
       <c r="H657" s="0"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18185,7 +18526,7 @@
         <v>14</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D658" s="0"/>
       <c r="E658" s="4" t="s">
@@ -18194,7 +18535,9 @@
       <c r="F658" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G658" s="0"/>
+      <c r="G658" s="0" t="s">
+        <v>987</v>
+      </c>
       <c r="H658" s="0"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18205,7 +18548,7 @@
         <v>14</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="D659" s="0"/>
       <c r="E659" s="4" t="s">
@@ -18214,7 +18557,9 @@
       <c r="F659" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G659" s="0"/>
+      <c r="G659" s="0" t="s">
+        <v>989</v>
+      </c>
       <c r="H659" s="0"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,7 +18570,7 @@
         <v>14</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
       <c r="D660" s="0"/>
       <c r="E660" s="4" t="s">
@@ -18234,7 +18579,9 @@
       <c r="F660" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G660" s="0"/>
+      <c r="G660" s="0" t="s">
+        <v>991</v>
+      </c>
       <c r="H660" s="0"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18245,7 +18592,7 @@
         <v>14</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
       <c r="D661" s="0"/>
       <c r="E661" s="4" t="s">
@@ -18254,7 +18601,9 @@
       <c r="F661" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G661" s="0"/>
+      <c r="G661" s="0" t="s">
+        <v>992</v>
+      </c>
       <c r="H661" s="0"/>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18274,7 +18623,9 @@
       <c r="F662" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G662" s="0"/>
+      <c r="G662" s="0" t="s">
+        <v>993</v>
+      </c>
       <c r="H662" s="0"/>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18294,7 +18645,9 @@
       <c r="F663" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G663" s="0"/>
+      <c r="G663" s="0" t="s">
+        <v>994</v>
+      </c>
       <c r="H663" s="0"/>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18305,7 +18658,7 @@
         <v>14</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="D664" s="0"/>
       <c r="E664" s="4" t="s">
@@ -18314,7 +18667,9 @@
       <c r="F664" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G664" s="0"/>
+      <c r="G664" s="0" t="s">
+        <v>996</v>
+      </c>
       <c r="H664" s="0"/>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18325,7 +18680,7 @@
         <v>14</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="D665" s="0"/>
       <c r="E665" s="4" t="s">
@@ -18334,7 +18689,9 @@
       <c r="F665" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G665" s="0"/>
+      <c r="G665" s="0" t="s">
+        <v>997</v>
+      </c>
       <c r="H665" s="0"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18345,7 +18702,7 @@
         <v>14</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>960</v>
+        <v>998</v>
       </c>
       <c r="D666" s="0"/>
       <c r="E666" s="4" t="s">
@@ -18354,7 +18711,9 @@
       <c r="F666" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G666" s="0"/>
+      <c r="G666" s="0" t="s">
+        <v>999</v>
+      </c>
       <c r="H666" s="0"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18365,7 +18724,7 @@
         <v>14</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="D667" s="0"/>
       <c r="E667" s="4" t="s">
@@ -18374,7 +18733,9 @@
       <c r="F667" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G667" s="0"/>
+      <c r="G667" s="0" t="s">
+        <v>1001</v>
+      </c>
       <c r="H667" s="0"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18394,7 +18755,9 @@
       <c r="F668" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G668" s="0"/>
+      <c r="G668" s="0" t="s">
+        <v>1002</v>
+      </c>
       <c r="H668" s="0"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18405,7 +18768,7 @@
         <v>14</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="D669" s="0"/>
       <c r="E669" s="4" t="s">
@@ -18414,7 +18777,9 @@
       <c r="F669" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G669" s="0"/>
+      <c r="G669" s="0" t="s">
+        <v>1004</v>
+      </c>
       <c r="H669" s="0"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18425,14 +18790,18 @@
         <v>659</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
       <c r="D670" s="0"/>
       <c r="E670" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F670" s="0"/>
-      <c r="G670" s="0"/>
+      <c r="F670" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G670" s="0" t="s">
+        <v>1006</v>
+      </c>
       <c r="H670" s="0"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18449,8 +18818,12 @@
       <c r="E671" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F671" s="0"/>
-      <c r="G671" s="0"/>
+      <c r="F671" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G671" s="0" t="s">
+        <v>1007</v>
+      </c>
       <c r="H671" s="0"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,8 +18840,12 @@
       <c r="E672" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F672" s="0"/>
-      <c r="G672" s="0"/>
+      <c r="F672" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G672" s="0" t="s">
+        <v>1008</v>
+      </c>
       <c r="H672" s="0"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18485,8 +18862,12 @@
       <c r="E673" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F673" s="0"/>
-      <c r="G673" s="0"/>
+      <c r="F673" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G673" s="0" t="s">
+        <v>1009</v>
+      </c>
       <c r="H673" s="0"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18503,8 +18884,12 @@
       <c r="E674" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F674" s="0"/>
-      <c r="G674" s="0"/>
+      <c r="F674" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G674" s="0" t="s">
+        <v>1010</v>
+      </c>
       <c r="H674" s="0"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18521,8 +18906,12 @@
       <c r="E675" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F675" s="0"/>
-      <c r="G675" s="0"/>
+      <c r="F675" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G675" s="0" t="s">
+        <v>1011</v>
+      </c>
       <c r="H675" s="0"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18539,8 +18928,12 @@
       <c r="E676" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F676" s="0"/>
-      <c r="G676" s="0"/>
+      <c r="F676" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G676" s="0" t="s">
+        <v>1012</v>
+      </c>
       <c r="H676" s="0"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18551,14 +18944,18 @@
         <v>659</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>964</v>
+        <v>1013</v>
       </c>
       <c r="D677" s="0"/>
       <c r="E677" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F677" s="0"/>
-      <c r="G677" s="0"/>
+      <c r="F677" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G677" s="0" t="s">
+        <v>1014</v>
+      </c>
       <c r="H677" s="0"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18569,14 +18966,18 @@
         <v>403</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="D678" s="0"/>
       <c r="E678" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F678" s="0"/>
-      <c r="G678" s="0"/>
+      <c r="F678" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G678" s="0" t="s">
+        <v>1016</v>
+      </c>
       <c r="H678" s="0"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18593,8 +18994,12 @@
       <c r="E679" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F679" s="0"/>
-      <c r="G679" s="0"/>
+      <c r="F679" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G679" s="0" t="s">
+        <v>1017</v>
+      </c>
       <c r="H679" s="0"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18611,8 +19016,12 @@
       <c r="E680" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F680" s="0"/>
-      <c r="G680" s="0"/>
+      <c r="F680" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G680" s="0" t="s">
+        <v>1018</v>
+      </c>
       <c r="H680" s="0"/>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18623,14 +19032,18 @@
         <v>659</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>966</v>
+        <v>1019</v>
       </c>
       <c r="D681" s="0"/>
       <c r="E681" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F681" s="0"/>
-      <c r="G681" s="0"/>
+      <c r="F681" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G681" s="0" t="s">
+        <v>1020</v>
+      </c>
       <c r="H681" s="0"/>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18647,8 +19060,12 @@
       <c r="E682" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F682" s="0"/>
-      <c r="G682" s="0"/>
+      <c r="F682" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G682" s="0" t="s">
+        <v>1021</v>
+      </c>
       <c r="H682" s="0"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18665,8 +19082,12 @@
       <c r="E683" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F683" s="0"/>
-      <c r="G683" s="0"/>
+      <c r="F683" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G683" s="0" t="s">
+        <v>884</v>
+      </c>
       <c r="H683" s="0"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18676,13 +19097,19 @@
       <c r="B684" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C684" s="7"/>
+      <c r="C684" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="D684" s="0"/>
       <c r="E684" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F684" s="0"/>
-      <c r="G684" s="0"/>
+      <c r="F684" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G684" s="0" t="s">
+        <v>1022</v>
+      </c>
       <c r="H684" s="0"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18692,13 +19119,19 @@
       <c r="B685" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C685" s="7"/>
+      <c r="C685" s="7" t="s">
+        <v>758</v>
+      </c>
       <c r="D685" s="0"/>
       <c r="E685" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F685" s="0"/>
-      <c r="G685" s="0"/>
+      <c r="F685" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G685" s="0" t="s">
+        <v>1023</v>
+      </c>
       <c r="H685" s="0"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18708,13 +19141,19 @@
       <c r="B686" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C686" s="7"/>
+      <c r="C686" s="7" t="s">
+        <v>760</v>
+      </c>
       <c r="D686" s="0"/>
       <c r="E686" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F686" s="0"/>
-      <c r="G686" s="0"/>
+      <c r="F686" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G686" s="0" t="s">
+        <v>1024</v>
+      </c>
       <c r="H686" s="0"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18722,15 +19161,21 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C687" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>810</v>
+      </c>
       <c r="D687" s="0"/>
       <c r="E687" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F687" s="0"/>
-      <c r="G687" s="0"/>
+      <c r="F687" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G687" s="0" t="s">
+        <v>1026</v>
+      </c>
       <c r="H687" s="0"/>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18738,15 +19183,21 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C688" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>1027</v>
+      </c>
       <c r="D688" s="0"/>
       <c r="E688" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F688" s="0"/>
-      <c r="G688" s="0"/>
+      <c r="F688" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G688" s="0" t="s">
+        <v>1028</v>
+      </c>
       <c r="H688" s="0"/>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18754,15 +19205,21 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C689" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>909</v>
+      </c>
       <c r="D689" s="0"/>
       <c r="E689" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F689" s="0"/>
-      <c r="G689" s="0"/>
+      <c r="F689" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G689" s="0" t="s">
+        <v>1029</v>
+      </c>
       <c r="H689" s="0"/>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18770,15 +19227,21 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C690" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C690" s="7" t="s">
+        <v>765</v>
+      </c>
       <c r="D690" s="0"/>
       <c r="E690" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F690" s="0"/>
-      <c r="G690" s="0"/>
+      <c r="F690" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G690" s="0" t="s">
+        <v>1030</v>
+      </c>
       <c r="H690" s="0"/>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18786,15 +19249,21 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C691" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>942</v>
+      </c>
       <c r="D691" s="0"/>
       <c r="E691" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F691" s="0"/>
-      <c r="G691" s="0"/>
+      <c r="F691" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G691" s="0" t="s">
+        <v>1031</v>
+      </c>
       <c r="H691" s="0"/>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18802,15 +19271,21 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C692" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C692" s="7" t="s">
+        <v>772</v>
+      </c>
       <c r="D692" s="0"/>
       <c r="E692" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F692" s="0"/>
-      <c r="G692" s="0"/>
+      <c r="F692" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G692" s="0" t="s">
+        <v>1032</v>
+      </c>
       <c r="H692" s="0"/>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18818,15 +19293,21 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C693" s="7"/>
+        <v>1033</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="D693" s="0"/>
       <c r="E693" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F693" s="0"/>
-      <c r="G693" s="0"/>
+      <c r="F693" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G693" s="0" t="s">
+        <v>1034</v>
+      </c>
       <c r="H693" s="0"/>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18834,15 +19315,21 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C694" s="7"/>
+        <v>1025</v>
+      </c>
+      <c r="C694" s="7" t="s">
+        <v>1035</v>
+      </c>
       <c r="D694" s="0"/>
       <c r="E694" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F694" s="0"/>
-      <c r="G694" s="0"/>
+      <c r="F694" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G694" s="0" t="s">
+        <v>1032</v>
+      </c>
       <c r="H694" s="0"/>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18850,15 +19337,21 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C695" s="7"/>
+        <v>1036</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>1037</v>
+      </c>
       <c r="D695" s="0"/>
       <c r="E695" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F695" s="0"/>
-      <c r="G695" s="0"/>
+      <c r="F695" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G695" s="0" t="s">
+        <v>1034</v>
+      </c>
       <c r="H695" s="0"/>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18868,13 +19361,19 @@
       <c r="B696" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C696" s="7"/>
+      <c r="C696" s="7" t="s">
+        <v>935</v>
+      </c>
       <c r="D696" s="0"/>
       <c r="E696" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F696" s="0"/>
-      <c r="G696" s="0"/>
+      <c r="F696" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G696" s="0" t="s">
+        <v>1038</v>
+      </c>
       <c r="H696" s="0"/>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18884,13 +19383,19 @@
       <c r="B697" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C697" s="7"/>
+      <c r="C697" s="7" t="s">
+        <v>935</v>
+      </c>
       <c r="D697" s="0"/>
       <c r="E697" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F697" s="0"/>
-      <c r="G697" s="0"/>
+      <c r="F697" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G697" s="0" t="s">
+        <v>1039</v>
+      </c>
       <c r="H697" s="0"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18900,13 +19405,19 @@
       <c r="B698" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C698" s="7"/>
+      <c r="C698" s="7" t="s">
+        <v>779</v>
+      </c>
       <c r="D698" s="0"/>
       <c r="E698" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F698" s="0"/>
-      <c r="G698" s="0"/>
+      <c r="F698" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G698" s="0" t="s">
+        <v>1040</v>
+      </c>
       <c r="H698" s="0"/>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18916,13 +19427,19 @@
       <c r="B699" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C699" s="7"/>
+      <c r="C699" s="7" t="s">
+        <v>1041</v>
+      </c>
       <c r="D699" s="0"/>
       <c r="E699" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F699" s="0"/>
-      <c r="G699" s="0"/>
+      <c r="F699" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G699" s="0" t="s">
+        <v>1042</v>
+      </c>
       <c r="H699" s="0"/>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18932,13 +19449,19 @@
       <c r="B700" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C700" s="7"/>
+      <c r="C700" s="7" t="s">
+        <v>871</v>
+      </c>
       <c r="D700" s="0"/>
       <c r="E700" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F700" s="0"/>
-      <c r="G700" s="0"/>
+      <c r="F700" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G700" s="0" t="s">
+        <v>1043</v>
+      </c>
       <c r="H700" s="0"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18948,13 +19471,19 @@
       <c r="B701" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C701" s="7"/>
+      <c r="C701" s="7" t="s">
+        <v>786</v>
+      </c>
       <c r="D701" s="0"/>
       <c r="E701" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F701" s="0"/>
-      <c r="G701" s="0"/>
+      <c r="F701" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G701" s="0" t="s">
+        <v>1044</v>
+      </c>
       <c r="H701" s="0"/>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18964,13 +19493,19 @@
       <c r="B702" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C702" s="7"/>
+      <c r="C702" s="7" t="s">
+        <v>788</v>
+      </c>
       <c r="D702" s="0"/>
       <c r="E702" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F702" s="0"/>
-      <c r="G702" s="0"/>
+      <c r="F702" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G702" s="0" t="s">
+        <v>1045</v>
+      </c>
       <c r="H702" s="0"/>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18980,13 +19515,19 @@
       <c r="B703" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C703" s="7"/>
+      <c r="C703" s="7" t="s">
+        <v>975</v>
+      </c>
       <c r="D703" s="0"/>
       <c r="E703" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F703" s="0"/>
-      <c r="G703" s="0"/>
+      <c r="F703" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G703" s="0" t="s">
+        <v>1046</v>
+      </c>
       <c r="H703" s="0"/>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18996,13 +19537,19 @@
       <c r="B704" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C704" s="7"/>
+      <c r="C704" s="7" t="s">
+        <v>792</v>
+      </c>
       <c r="D704" s="0"/>
       <c r="E704" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F704" s="0"/>
-      <c r="G704" s="0"/>
+      <c r="F704" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G704" s="0" t="s">
+        <v>1047</v>
+      </c>
       <c r="H704" s="0"/>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19012,13 +19559,19 @@
       <c r="B705" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C705" s="7"/>
+      <c r="C705" s="7" t="s">
+        <v>988</v>
+      </c>
       <c r="D705" s="0"/>
       <c r="E705" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F705" s="0"/>
-      <c r="G705" s="0"/>
+      <c r="F705" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G705" s="0" t="s">
+        <v>1048</v>
+      </c>
       <c r="H705" s="0"/>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19028,13 +19581,19 @@
       <c r="B706" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C706" s="7"/>
+      <c r="C706" s="7" t="s">
+        <v>1000</v>
+      </c>
       <c r="D706" s="0"/>
       <c r="E706" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F706" s="0"/>
-      <c r="G706" s="0"/>
+      <c r="F706" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G706" s="0" t="s">
+        <v>1049</v>
+      </c>
       <c r="H706" s="0"/>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19042,15 +19601,21 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C707" s="7"/>
+        <v>1050</v>
+      </c>
+      <c r="C707" s="7" t="s">
+        <v>1051</v>
+      </c>
       <c r="D707" s="0"/>
       <c r="E707" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F707" s="0"/>
-      <c r="G707" s="0"/>
+      <c r="F707" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G707" s="0" t="s">
+        <v>1052</v>
+      </c>
       <c r="H707" s="0"/>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19058,15 +19623,21 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C708" s="7"/>
+        <v>1053</v>
+      </c>
+      <c r="C708" s="7" t="s">
+        <v>1054</v>
+      </c>
       <c r="D708" s="0"/>
       <c r="E708" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F708" s="0"/>
-      <c r="G708" s="0"/>
+      <c r="F708" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G708" s="0" t="s">
+        <v>1055</v>
+      </c>
       <c r="H708" s="0"/>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19074,15 +19645,21 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C709" s="7"/>
+        <v>1053</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>754</v>
+      </c>
       <c r="D709" s="0"/>
       <c r="E709" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F709" s="0"/>
-      <c r="G709" s="0"/>
+      <c r="F709" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G709" s="0" t="s">
+        <v>1056</v>
+      </c>
       <c r="H709" s="0"/>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19090,15 +19667,21 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C710" s="7"/>
+        <v>1050</v>
+      </c>
+      <c r="C710" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="D710" s="0"/>
       <c r="E710" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F710" s="0"/>
-      <c r="G710" s="0"/>
+      <c r="F710" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G710" s="0" t="s">
+        <v>1057</v>
+      </c>
       <c r="H710" s="0"/>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19106,15 +19689,21 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C711" s="7"/>
+        <v>1050</v>
+      </c>
+      <c r="C711" s="7" t="s">
+        <v>758</v>
+      </c>
       <c r="D711" s="0"/>
       <c r="E711" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F711" s="0"/>
-      <c r="G711" s="0"/>
+      <c r="F711" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G711" s="0" t="s">
+        <v>1058</v>
+      </c>
       <c r="H711" s="0"/>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19122,15 +19711,21 @@
         <v>711</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C712" s="7"/>
+        <v>1050</v>
+      </c>
+      <c r="C712" s="7" t="s">
+        <v>760</v>
+      </c>
       <c r="D712" s="0"/>
       <c r="E712" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F712" s="0"/>
-      <c r="G712" s="0"/>
+      <c r="F712" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G712" s="0" t="s">
+        <v>1059</v>
+      </c>
       <c r="H712" s="0"/>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19138,15 +19733,21 @@
         <v>712</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C713" s="7"/>
+        <v>1053</v>
+      </c>
+      <c r="C713" s="7" t="s">
+        <v>871</v>
+      </c>
       <c r="D713" s="0"/>
       <c r="E713" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F713" s="0"/>
-      <c r="G713" s="0"/>
+      <c r="F713" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G713" s="0" t="s">
+        <v>1060</v>
+      </c>
       <c r="H713" s="0"/>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19154,15 +19755,21 @@
         <v>713</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C714" s="7"/>
+        <v>1050</v>
+      </c>
+      <c r="C714" s="7" t="s">
+        <v>788</v>
+      </c>
       <c r="D714" s="0"/>
       <c r="E714" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F714" s="0"/>
-      <c r="G714" s="0"/>
+      <c r="F714" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G714" s="0" t="s">
+        <v>1061</v>
+      </c>
       <c r="H714" s="0"/>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20226,7 +20833,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="C781" s="7"/>
       <c r="D781" s="0"/>
@@ -20242,7 +20849,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="0"/>
@@ -20258,7 +20865,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>970</v>
+        <v>1063</v>
       </c>
       <c r="C783" s="7"/>
       <c r="D783" s="0"/>
@@ -20274,7 +20881,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>971</v>
+        <v>1064</v>
       </c>
       <c r="C784" s="7"/>
       <c r="D784" s="0"/>
@@ -20290,7 +20897,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>971</v>
+        <v>1064</v>
       </c>
       <c r="C785" s="7"/>
       <c r="D785" s="0"/>
@@ -20322,7 +20929,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>972</v>
+        <v>1065</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>214</v>
@@ -20331,7 +20938,7 @@
       <c r="E787" s="0"/>
       <c r="F787" s="0"/>
       <c r="G787" s="4" t="s">
-        <v>973</v>
+        <v>1066</v>
       </c>
       <c r="H787" s="0"/>
     </row>
@@ -20340,7 +20947,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>972</v>
+        <v>1065</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>214</v>
@@ -20351,7 +20958,7 @@
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="4" t="s">
-        <v>974</v>
+        <v>1067</v>
       </c>
       <c r="H788" s="5"/>
     </row>
@@ -20360,7 +20967,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>975</v>
+        <v>1068</v>
       </c>
       <c r="C789" s="9"/>
       <c r="D789" s="5"/>
@@ -20376,7 +20983,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>971</v>
+        <v>1064</v>
       </c>
       <c r="C790" s="9"/>
       <c r="D790" s="5"/>
@@ -20392,7 +20999,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>971</v>
+        <v>1064</v>
       </c>
       <c r="C791" s="9"/>
       <c r="D791" s="5"/>
@@ -20408,7 +21015,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>976</v>
+        <v>1069</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>866</v>
@@ -20421,7 +21028,7 @@
         <v>12</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>977</v>
+        <v>1070</v>
       </c>
       <c r="H792" s="5"/>
     </row>

--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -5,31 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$4284</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7271" uniqueCount="1081">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3227,6 +3209,36 @@
   </si>
   <si>
     <t xml:space="preserve">согнать кого, что-л. между чем-л. (сверху вниз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уложить кого-л. В люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гвыгв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уложиться в люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1за</t>
+  </si>
+  <si>
+    <t xml:space="preserve">воспитывать кого-л. В люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возиться в люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">успокоиться в люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ночевать в люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">играть в люльке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">залезть в люльку</t>
   </si>
   <si>
     <t xml:space="preserve">гва-</t>
@@ -3405,22 +3417,22 @@
   </sheetPr>
   <dimension ref="A1:I4284"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C703" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="C699" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G715" activeCellId="0" sqref="G715"/>
+      <selection pane="bottomLeft" activeCell="B719" activeCellId="0" sqref="B719"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="4" width="18.6275510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="21.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="4" width="18.63"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19779,13 +19791,19 @@
       <c r="B715" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C715" s="7"/>
+      <c r="C715" s="7" t="s">
+        <v>1051</v>
+      </c>
       <c r="D715" s="0"/>
       <c r="E715" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F715" s="0"/>
-      <c r="G715" s="0"/>
+      <c r="F715" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="0" t="s">
+        <v>1062</v>
+      </c>
       <c r="H715" s="0"/>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19795,13 +19813,19 @@
       <c r="B716" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C716" s="7"/>
+      <c r="C716" s="7" t="s">
+        <v>1063</v>
+      </c>
       <c r="D716" s="0"/>
       <c r="E716" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F716" s="0"/>
-      <c r="G716" s="0"/>
+      <c r="F716" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G716" s="0" t="s">
+        <v>1064</v>
+      </c>
       <c r="H716" s="0"/>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19811,13 +19835,19 @@
       <c r="B717" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C717" s="7"/>
+      <c r="C717" s="7" t="s">
+        <v>1065</v>
+      </c>
       <c r="D717" s="0"/>
       <c r="E717" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F717" s="0"/>
-      <c r="G717" s="0"/>
+      <c r="F717" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G717" s="0" t="s">
+        <v>1066</v>
+      </c>
       <c r="H717" s="0"/>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19827,13 +19857,19 @@
       <c r="B718" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C718" s="7"/>
+      <c r="C718" s="7" t="s">
+        <v>829</v>
+      </c>
       <c r="D718" s="0"/>
       <c r="E718" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F718" s="0"/>
-      <c r="G718" s="0"/>
+      <c r="F718" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G718" s="0" t="s">
+        <v>1067</v>
+      </c>
       <c r="H718" s="0"/>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19843,13 +19879,19 @@
       <c r="B719" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C719" s="7"/>
+      <c r="C719" s="7" t="s">
+        <v>852</v>
+      </c>
       <c r="D719" s="0"/>
       <c r="E719" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F719" s="0"/>
-      <c r="G719" s="0"/>
+      <c r="F719" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G719" s="0" t="s">
+        <v>1068</v>
+      </c>
       <c r="H719" s="0"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19859,13 +19901,19 @@
       <c r="B720" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C720" s="7"/>
+      <c r="C720" s="7" t="s">
+        <v>901</v>
+      </c>
       <c r="D720" s="0"/>
       <c r="E720" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F720" s="0"/>
-      <c r="G720" s="0"/>
+      <c r="F720" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G720" s="0" t="s">
+        <v>1069</v>
+      </c>
       <c r="H720" s="0"/>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19875,13 +19923,19 @@
       <c r="B721" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C721" s="7"/>
+      <c r="C721" s="7" t="s">
+        <v>964</v>
+      </c>
       <c r="D721" s="0"/>
       <c r="E721" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F721" s="0"/>
-      <c r="G721" s="0"/>
+      <c r="F721" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G721" s="0" t="s">
+        <v>1070</v>
+      </c>
       <c r="H721" s="0"/>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19891,13 +19945,19 @@
       <c r="B722" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C722" s="7"/>
+      <c r="C722" s="7" t="s">
+        <v>798</v>
+      </c>
       <c r="D722" s="0"/>
       <c r="E722" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F722" s="0"/>
-      <c r="G722" s="0"/>
+      <c r="F722" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G722" s="0" t="s">
+        <v>1071</v>
+      </c>
       <c r="H722" s="0"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20833,7 +20893,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="C781" s="7"/>
       <c r="D781" s="0"/>
@@ -20849,7 +20909,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="0"/>
@@ -20865,7 +20925,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="C783" s="7"/>
       <c r="D783" s="0"/>
@@ -20881,7 +20941,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C784" s="7"/>
       <c r="D784" s="0"/>
@@ -20897,7 +20957,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C785" s="7"/>
       <c r="D785" s="0"/>
@@ -20929,7 +20989,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>214</v>
@@ -20938,7 +20998,7 @@
       <c r="E787" s="0"/>
       <c r="F787" s="0"/>
       <c r="G787" s="4" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="H787" s="0"/>
     </row>
@@ -20947,7 +21007,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>214</v>
@@ -20958,7 +21018,7 @@
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="4" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="H788" s="5"/>
     </row>
@@ -20967,7 +21027,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="C789" s="9"/>
       <c r="D789" s="5"/>
@@ -20983,7 +21043,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C790" s="9"/>
       <c r="D790" s="5"/>
@@ -20999,7 +21059,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C791" s="9"/>
       <c r="D791" s="5"/>
@@ -21015,7 +21075,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>866</v>
@@ -21028,7 +21088,7 @@
         <v>12</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="H792" s="5"/>
     </row>
@@ -48972,7 +49032,7 @@
   <autoFilter ref="A1:H4284"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7271" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7421" uniqueCount="1140">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3239,6 +3239,183 @@
   </si>
   <si>
     <t xml:space="preserve">залезть в люльку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбогатеть во дворе (огороженном месте)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сгнить во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жить во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гореть во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сжигать что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вносить, ввозить кого, что-л. Во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гыла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стоять во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">простоять во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гъы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-р-дз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моросить во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вкатиться во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1ва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">засознуть во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возиться во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проскользнуть во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пропасть, исчезнуть во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просочиться (о жидкости) во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">успокоиться во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ква</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выпасть идти (о дожде) во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поймать кого, что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сверкать во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-ха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работать во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хлопотать во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">замести что-л. Во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вызыпать (мелкие сыпучие предметы) во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">умереть во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ночевать во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пересчитать кого, что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смотреть во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">падать (мелкие предметы) во двор (или во дворе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выпасть, идти (о снеге) во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">делать что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рубить что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">забежать во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затащить кого, что-л. Во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выстрелить во двор (или во дворе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">играть во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доить кого-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">распространяться (о запахе) во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">загнать кого, что-л. Во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вылить (жидкое) во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">просачиваться, влиться (о жидкости) во двор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ч1ву</t>
+  </si>
+  <si>
+    <t xml:space="preserve">плакать во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гвара-ра-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">делить что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сжечь что-л. Во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лаять во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уместиться во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свистеть во дворе (или во двор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">убить, убивать во дворе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">залезать, залезть во двор</t>
   </si>
   <si>
     <t xml:space="preserve">гва-</t>
@@ -3415,12 +3592,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4284"/>
+  <dimension ref="A1:AMJ4284"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C699" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="C754" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B719" activeCellId="0" sqref="B719"/>
+      <selection pane="bottomLeft" activeCell="C771" activeCellId="0" sqref="C771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3432,7 +3609,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="21.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="4" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="4" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="18.63"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,6 +3641,7 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -19962,794 +20141,1094 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B723" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C723" s="7"/>
+      <c r="C723" s="7" t="s">
+        <v>800</v>
+      </c>
       <c r="D723" s="0"/>
       <c r="E723" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F723" s="0"/>
-      <c r="G723" s="0"/>
+      <c r="F723" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G723" s="0" t="s">
+        <v>1072</v>
+      </c>
       <c r="H723" s="0"/>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B724" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C724" s="7"/>
+      <c r="C724" s="7" t="s">
+        <v>810</v>
+      </c>
       <c r="D724" s="0"/>
       <c r="E724" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F724" s="0"/>
-      <c r="G724" s="0"/>
+      <c r="F724" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G724" s="0" t="s">
+        <v>1073</v>
+      </c>
       <c r="H724" s="0"/>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B725" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C725" s="7"/>
+      <c r="C725" s="7" t="s">
+        <v>802</v>
+      </c>
       <c r="D725" s="0"/>
       <c r="E725" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F725" s="0"/>
-      <c r="G725" s="0"/>
+      <c r="F725" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G725" s="0" t="s">
+        <v>1074</v>
+      </c>
       <c r="H725" s="0"/>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B726" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C726" s="7"/>
+      <c r="C726" s="7" t="s">
+        <v>736</v>
+      </c>
       <c r="D726" s="0"/>
       <c r="E726" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F726" s="0"/>
-      <c r="G726" s="0"/>
+      <c r="F726" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G726" s="0" t="s">
+        <v>172</v>
+      </c>
       <c r="H726" s="0"/>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B727" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C727" s="7"/>
+      <c r="C727" s="7" t="s">
+        <v>804</v>
+      </c>
       <c r="D727" s="0"/>
       <c r="E727" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F727" s="0"/>
-      <c r="G727" s="0"/>
+      <c r="F727" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G727" s="0" t="s">
+        <v>1075</v>
+      </c>
       <c r="H727" s="0"/>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="n">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B728" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C728" s="7"/>
+      <c r="C728" s="7" t="s">
+        <v>804</v>
+      </c>
       <c r="D728" s="0"/>
       <c r="E728" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F728" s="0"/>
-      <c r="G728" s="0"/>
+      <c r="F728" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G728" s="0" t="s">
+        <v>1076</v>
+      </c>
       <c r="H728" s="0"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B729" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C729" s="7"/>
+      <c r="C729" s="7" t="s">
+        <v>738</v>
+      </c>
       <c r="D729" s="0"/>
       <c r="E729" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F729" s="0"/>
-      <c r="G729" s="0"/>
+      <c r="F729" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G729" s="0" t="s">
+        <v>1077</v>
+      </c>
       <c r="H729" s="0"/>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B730" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C730" s="7"/>
+      <c r="C730" s="7" t="s">
+        <v>1078</v>
+      </c>
       <c r="D730" s="0"/>
       <c r="E730" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F730" s="0"/>
-      <c r="G730" s="0"/>
+      <c r="F730" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G730" s="0" t="s">
+        <v>1079</v>
+      </c>
       <c r="H730" s="0"/>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B731" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C731" s="7"/>
+      <c r="C731" s="7" t="s">
+        <v>815</v>
+      </c>
       <c r="D731" s="0"/>
       <c r="E731" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F731" s="0"/>
-      <c r="G731" s="0"/>
+      <c r="F731" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G731" s="0" t="s">
+        <v>1080</v>
+      </c>
       <c r="H731" s="0"/>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="n">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B732" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C732" s="7"/>
-      <c r="D732" s="0"/>
+      <c r="C732" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D732" s="0" t="s">
+        <v>1082</v>
+      </c>
       <c r="E732" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F732" s="0"/>
-      <c r="G732" s="0"/>
+      <c r="F732" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G732" s="0" t="s">
+        <v>1083</v>
+      </c>
       <c r="H732" s="0"/>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="n">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B733" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C733" s="7"/>
+      <c r="C733" s="7" t="s">
+        <v>742</v>
+      </c>
       <c r="D733" s="0"/>
       <c r="E733" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F733" s="0"/>
-      <c r="G733" s="0"/>
+      <c r="F733" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G733" s="0" t="s">
+        <v>1084</v>
+      </c>
       <c r="H733" s="0"/>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B734" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C734" s="7"/>
+      <c r="C734" s="7" t="s">
+        <v>1085</v>
+      </c>
       <c r="D734" s="0"/>
       <c r="E734" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F734" s="0"/>
-      <c r="G734" s="0"/>
+      <c r="F734" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G734" s="0" t="s">
+        <v>1086</v>
+      </c>
       <c r="H734" s="0"/>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B735" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C735" s="7"/>
+      <c r="C735" s="7" t="s">
+        <v>829</v>
+      </c>
       <c r="D735" s="0"/>
       <c r="E735" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F735" s="0"/>
-      <c r="G735" s="0"/>
+      <c r="F735" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G735" s="0" t="s">
+        <v>1087</v>
+      </c>
       <c r="H735" s="0"/>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B736" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C736" s="7"/>
+      <c r="C736" s="7" t="s">
+        <v>744</v>
+      </c>
       <c r="D736" s="0"/>
       <c r="E736" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F736" s="0"/>
-      <c r="G736" s="0"/>
+      <c r="F736" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G736" s="0" t="s">
+        <v>1088</v>
+      </c>
       <c r="H736" s="0"/>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B737" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C737" s="7"/>
+      <c r="C737" s="7" t="s">
+        <v>838</v>
+      </c>
       <c r="D737" s="0"/>
       <c r="E737" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F737" s="0"/>
-      <c r="G737" s="0"/>
+      <c r="F737" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G737" s="0" t="s">
+        <v>1089</v>
+      </c>
       <c r="H737" s="0"/>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="n">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B738" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C738" s="7"/>
+      <c r="C738" s="7" t="s">
+        <v>746</v>
+      </c>
       <c r="D738" s="0"/>
       <c r="E738" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F738" s="0"/>
-      <c r="G738" s="0"/>
+      <c r="F738" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G738" s="0" t="s">
+        <v>1090</v>
+      </c>
       <c r="H738" s="0"/>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B739" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C739" s="7"/>
+      <c r="C739" s="7" t="s">
+        <v>852</v>
+      </c>
       <c r="D739" s="0"/>
       <c r="E739" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F739" s="0"/>
-      <c r="G739" s="0"/>
+      <c r="F739" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G739" s="0" t="s">
+        <v>1091</v>
+      </c>
       <c r="H739" s="0"/>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="n">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B740" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C740" s="7"/>
+      <c r="C740" s="7" t="s">
+        <v>1092</v>
+      </c>
       <c r="D740" s="0"/>
       <c r="E740" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F740" s="0"/>
-      <c r="G740" s="0"/>
+      <c r="F740" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G740" s="0" t="s">
+        <v>1093</v>
+      </c>
       <c r="H740" s="0"/>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="n">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B741" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C741" s="7"/>
+      <c r="C741" s="7" t="s">
+        <v>866</v>
+      </c>
       <c r="D741" s="0"/>
       <c r="E741" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F741" s="0"/>
-      <c r="G741" s="0"/>
+      <c r="F741" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G741" s="0" t="s">
+        <v>1094</v>
+      </c>
       <c r="H741" s="0"/>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B742" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C742" s="7"/>
+      <c r="C742" s="7" t="s">
+        <v>868</v>
+      </c>
       <c r="D742" s="0"/>
       <c r="E742" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F742" s="0"/>
-      <c r="G742" s="0"/>
+      <c r="F742" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G742" s="0" t="s">
+        <v>1095</v>
+      </c>
       <c r="H742" s="0"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B743" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C743" s="7"/>
-      <c r="D743" s="0"/>
+      <c r="C743" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D743" s="0" t="s">
+        <v>1097</v>
+      </c>
       <c r="E743" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F743" s="0"/>
-      <c r="G743" s="0"/>
+      <c r="F743" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G743" s="0" t="s">
+        <v>1098</v>
+      </c>
       <c r="H743" s="0"/>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B744" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C744" s="7"/>
+      <c r="C744" s="7" t="s">
+        <v>885</v>
+      </c>
       <c r="D744" s="0"/>
       <c r="E744" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F744" s="0"/>
-      <c r="G744" s="0"/>
+      <c r="F744" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G744" s="0" t="s">
+        <v>1099</v>
+      </c>
       <c r="H744" s="0"/>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="n">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B745" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C745" s="7"/>
+      <c r="C745" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="D745" s="0"/>
       <c r="E745" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F745" s="0"/>
-      <c r="G745" s="0"/>
+      <c r="F745" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G745" s="0" t="s">
+        <v>1100</v>
+      </c>
       <c r="H745" s="0"/>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B746" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C746" s="7"/>
+      <c r="C746" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="D746" s="0"/>
       <c r="E746" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F746" s="0"/>
-      <c r="G746" s="0"/>
+      <c r="F746" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G746" s="0" t="s">
+        <v>1101</v>
+      </c>
       <c r="H746" s="0"/>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B747" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C747" s="7"/>
+      <c r="C747" s="7" t="s">
+        <v>890</v>
+      </c>
       <c r="D747" s="0"/>
       <c r="E747" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F747" s="0"/>
-      <c r="G747" s="0"/>
+      <c r="F747" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G747" s="0" t="s">
+        <v>1102</v>
+      </c>
       <c r="H747" s="0"/>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B748" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C748" s="7"/>
+      <c r="C748" s="7" t="s">
+        <v>901</v>
+      </c>
       <c r="D748" s="0"/>
       <c r="E748" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F748" s="0"/>
-      <c r="G748" s="0"/>
+      <c r="F748" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G748" s="0" t="s">
+        <v>1103</v>
+      </c>
       <c r="H748" s="0"/>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="n">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B749" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C749" s="7"/>
+      <c r="C749" s="7" t="s">
+        <v>903</v>
+      </c>
       <c r="D749" s="0"/>
       <c r="E749" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F749" s="0"/>
-      <c r="G749" s="0"/>
+      <c r="F749" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G749" s="0" t="s">
+        <v>1104</v>
+      </c>
       <c r="H749" s="0"/>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B750" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C750" s="7"/>
+      <c r="C750" s="7" t="s">
+        <v>758</v>
+      </c>
       <c r="D750" s="0"/>
       <c r="E750" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F750" s="0"/>
-      <c r="G750" s="0"/>
+      <c r="F750" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G750" s="0" t="s">
+        <v>1105</v>
+      </c>
       <c r="H750" s="0"/>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="n">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B751" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C751" s="7"/>
+      <c r="C751" s="7" t="s">
+        <v>760</v>
+      </c>
       <c r="D751" s="0"/>
       <c r="E751" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F751" s="0"/>
-      <c r="G751" s="0"/>
+      <c r="F751" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G751" s="0" t="s">
+        <v>1106</v>
+      </c>
       <c r="H751" s="0"/>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B752" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C752" s="7"/>
+      <c r="C752" s="7" t="s">
+        <v>935</v>
+      </c>
       <c r="D752" s="0"/>
       <c r="E752" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F752" s="0"/>
-      <c r="G752" s="0"/>
+      <c r="F752" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G752" s="0" t="s">
+        <v>1107</v>
+      </c>
       <c r="H752" s="0"/>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="n">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B753" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C753" s="7"/>
+      <c r="C753" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="D753" s="0"/>
       <c r="E753" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F753" s="0"/>
-      <c r="G753" s="0"/>
+      <c r="F753" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G753" s="0" t="s">
+        <v>1108</v>
+      </c>
       <c r="H753" s="0"/>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B754" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C754" s="7"/>
+      <c r="C754" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="D754" s="0"/>
       <c r="E754" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F754" s="0"/>
-      <c r="G754" s="0"/>
+      <c r="F754" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G754" s="0" t="s">
+        <v>1109</v>
+      </c>
       <c r="H754" s="0"/>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B755" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C755" s="7"/>
+      <c r="C755" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="D755" s="0"/>
       <c r="E755" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F755" s="0"/>
-      <c r="G755" s="0"/>
+      <c r="F755" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G755" s="0" t="s">
+        <v>1110</v>
+      </c>
       <c r="H755" s="0"/>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B756" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C756" s="7"/>
+      <c r="C756" s="7" t="s">
+        <v>786</v>
+      </c>
       <c r="D756" s="0"/>
       <c r="E756" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F756" s="0"/>
-      <c r="G756" s="0"/>
+      <c r="F756" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G756" s="0" t="s">
+        <v>1111</v>
+      </c>
       <c r="H756" s="0"/>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B757" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C757" s="7"/>
-      <c r="D757" s="0"/>
+      <c r="C757" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D757" s="0" t="s">
+        <v>1113</v>
+      </c>
       <c r="E757" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F757" s="0"/>
-      <c r="G757" s="0"/>
+      <c r="F757" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G757" s="0" t="s">
+        <v>1114</v>
+      </c>
       <c r="H757" s="0"/>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B758" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C758" s="7"/>
+      <c r="C758" s="7" t="s">
+        <v>964</v>
+      </c>
       <c r="D758" s="0"/>
       <c r="E758" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F758" s="0"/>
-      <c r="G758" s="0"/>
+      <c r="F758" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G758" s="0" t="s">
+        <v>1115</v>
+      </c>
       <c r="H758" s="0"/>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B759" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C759" s="7"/>
+      <c r="C759" s="7" t="s">
+        <v>966</v>
+      </c>
       <c r="D759" s="0"/>
       <c r="E759" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F759" s="0"/>
-      <c r="G759" s="0"/>
+      <c r="F759" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G759" s="0" t="s">
+        <v>1116</v>
+      </c>
       <c r="H759" s="0"/>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="n">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B760" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C760" s="7"/>
+      <c r="C760" s="7" t="s">
+        <v>871</v>
+      </c>
       <c r="D760" s="0"/>
       <c r="E760" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F760" s="0"/>
-      <c r="G760" s="0"/>
+      <c r="F760" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G760" s="0" t="s">
+        <v>1117</v>
+      </c>
       <c r="H760" s="0"/>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B761" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C761" s="7"/>
+      <c r="C761" s="7" t="s">
+        <v>788</v>
+      </c>
       <c r="D761" s="0"/>
       <c r="E761" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F761" s="0"/>
-      <c r="G761" s="0"/>
+      <c r="F761" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G761" s="0" t="s">
+        <v>1118</v>
+      </c>
       <c r="H761" s="0"/>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B762" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C762" s="7"/>
+      <c r="C762" s="7" t="s">
+        <v>973</v>
+      </c>
       <c r="D762" s="0"/>
       <c r="E762" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F762" s="0"/>
-      <c r="G762" s="0"/>
+      <c r="F762" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G762" s="0" t="s">
+        <v>1119</v>
+      </c>
       <c r="H762" s="0"/>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B763" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C763" s="7"/>
+      <c r="C763" s="7" t="s">
+        <v>792</v>
+      </c>
       <c r="D763" s="0"/>
       <c r="E763" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F763" s="0"/>
-      <c r="G763" s="0"/>
+      <c r="F763" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G763" s="0" t="s">
+        <v>1120</v>
+      </c>
       <c r="H763" s="0"/>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B764" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C764" s="7"/>
+      <c r="C764" s="7" t="s">
+        <v>1121</v>
+      </c>
       <c r="D764" s="0"/>
       <c r="E764" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F764" s="0"/>
-      <c r="G764" s="0"/>
+      <c r="F764" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G764" s="0" t="s">
+        <v>1122</v>
+      </c>
       <c r="H764" s="0"/>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C765" s="7"/>
+        <v>1123</v>
+      </c>
+      <c r="C765" s="7" t="s">
+        <v>988</v>
+      </c>
       <c r="D765" s="0"/>
       <c r="E765" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F765" s="0"/>
-      <c r="G765" s="0"/>
+      <c r="F765" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G765" s="0" t="s">
+        <v>1124</v>
+      </c>
       <c r="H765" s="0"/>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B766" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C766" s="7"/>
+      <c r="C766" s="7" t="s">
+        <v>990</v>
+      </c>
       <c r="D766" s="0"/>
       <c r="E766" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F766" s="0"/>
-      <c r="G766" s="0"/>
+      <c r="F766" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G766" s="0" t="s">
+        <v>1125</v>
+      </c>
       <c r="H766" s="0"/>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B767" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C767" s="7"/>
+      <c r="C767" s="7" t="s">
+        <v>985</v>
+      </c>
       <c r="D767" s="0"/>
       <c r="E767" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F767" s="0"/>
-      <c r="G767" s="0"/>
+      <c r="F767" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G767" s="0" t="s">
+        <v>1126</v>
+      </c>
       <c r="H767" s="0"/>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B768" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C768" s="7"/>
+      <c r="C768" s="7" t="s">
+        <v>794</v>
+      </c>
       <c r="D768" s="0"/>
       <c r="E768" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F768" s="0"/>
-      <c r="G768" s="0"/>
+      <c r="F768" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G768" s="0" t="s">
+        <v>1127</v>
+      </c>
       <c r="H768" s="0"/>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="n">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B769" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C769" s="7"/>
+      <c r="C769" s="7" t="s">
+        <v>998</v>
+      </c>
       <c r="D769" s="0"/>
       <c r="E769" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F769" s="0"/>
-      <c r="G769" s="0"/>
+      <c r="F769" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G769" s="0" t="s">
+        <v>1128</v>
+      </c>
       <c r="H769" s="0"/>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="n">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B770" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C770" s="7"/>
+      <c r="C770" s="7" t="s">
+        <v>1000</v>
+      </c>
       <c r="D770" s="0"/>
       <c r="E770" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F770" s="0"/>
-      <c r="G770" s="0"/>
+      <c r="F770" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G770" s="0" t="s">
+        <v>1129</v>
+      </c>
       <c r="H770" s="0"/>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B771" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C771" s="7"/>
+      <c r="C771" s="7" t="s">
+        <v>798</v>
+      </c>
       <c r="D771" s="0"/>
       <c r="E771" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F771" s="0"/>
-      <c r="G771" s="0"/>
+      <c r="F771" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G771" s="0" t="s">
+        <v>1130</v>
+      </c>
       <c r="H771" s="0"/>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="C772" s="7"/>
       <c r="D772" s="0"/>
@@ -20762,10 +21241,10 @@
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="n">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="C773" s="7"/>
       <c r="D773" s="0"/>
@@ -20778,10 +21257,10 @@
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="C774" s="7"/>
       <c r="D774" s="0"/>
@@ -20794,7 +21273,7 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B775" s="2" t="s">
         <v>410</v>
@@ -20810,7 +21289,7 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="n">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B776" s="2" t="s">
         <v>410</v>
@@ -20826,7 +21305,7 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B777" s="2" t="s">
         <v>410</v>
@@ -20842,7 +21321,7 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B778" s="2" t="s">
         <v>410</v>
@@ -20858,7 +21337,7 @@
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B779" s="2" t="s">
         <v>410</v>
@@ -20874,7 +21353,7 @@
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B780" s="2" t="s">
         <v>410</v>
@@ -20890,10 +21369,10 @@
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="n">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1072</v>
+        <v>1131</v>
       </c>
       <c r="C781" s="7"/>
       <c r="D781" s="0"/>
@@ -20906,10 +21385,10 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1072</v>
+        <v>1131</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="0"/>
@@ -20922,10 +21401,10 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="n">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1073</v>
+        <v>1132</v>
       </c>
       <c r="C783" s="7"/>
       <c r="D783" s="0"/>
@@ -20938,10 +21417,10 @@
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="C784" s="7"/>
       <c r="D784" s="0"/>
@@ -20954,10 +21433,10 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="C785" s="7"/>
       <c r="D785" s="0"/>
@@ -20970,7 +21449,7 @@
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B786" s="2" t="s">
         <v>509</v>
@@ -20986,10 +21465,10 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1075</v>
+        <v>1134</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>214</v>
@@ -20998,16 +21477,16 @@
       <c r="E787" s="0"/>
       <c r="F787" s="0"/>
       <c r="G787" s="4" t="s">
-        <v>1076</v>
+        <v>1135</v>
       </c>
       <c r="H787" s="0"/>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="n">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1075</v>
+        <v>1134</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>214</v>
@@ -21018,16 +21497,16 @@
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="4" t="s">
-        <v>1077</v>
+        <v>1136</v>
       </c>
       <c r="H788" s="5"/>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1078</v>
+        <v>1137</v>
       </c>
       <c r="C789" s="9"/>
       <c r="D789" s="5"/>
@@ -21040,10 +21519,10 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="n">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="C790" s="9"/>
       <c r="D790" s="5"/>
@@ -21056,10 +21535,10 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="n">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="C791" s="9"/>
       <c r="D791" s="5"/>
@@ -21072,10 +21551,10 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1079</v>
+        <v>1138</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>866</v>
@@ -21088,7 +21567,7 @@
         <v>12</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>1080</v>
+        <v>1139</v>
       </c>
       <c r="H792" s="5"/>
     </row>

--- a/klychev.xlsx
+++ b/klychev.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7421" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="1158">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3418,15 +3418,57 @@
     <t xml:space="preserve">залезать, залезть во двор</t>
   </si>
   <si>
+    <t xml:space="preserve">вывезти, вынести кого, что-л. Со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкатиться со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выбежать со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вымести, выметать что-л. Со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смотреть со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выгнать кого, что-л. Со двора</t>
+  </si>
+  <si>
     <t xml:space="preserve">гва-</t>
   </si>
   <si>
+    <t xml:space="preserve">торопиться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пщ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">краснощекий (сердце красное)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(г1а)-гва-</t>
   </si>
   <si>
+    <t xml:space="preserve">хъвыц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">придумать что-л. (В сердце)</t>
+  </si>
+  <si>
     <t xml:space="preserve">а-гв-</t>
   </si>
   <si>
+    <t xml:space="preserve">разрываться (рваться в сердце)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разорвать, разрывать кого, что-л. (в сердце)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разорвать, разрывать кого, что-л. На мелкие части</t>
+  </si>
+  <si>
     <t xml:space="preserve">гвы-м-</t>
   </si>
   <si>
@@ -3437,6 +3479,18 @@
   </si>
   <si>
     <t xml:space="preserve">гвы-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тупой (человек)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">треснуть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">треснуть во многих местах</t>
   </si>
   <si>
     <t xml:space="preserve">гвы-жв-</t>
@@ -3452,12 +3506,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3476,27 +3529,144 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Brill"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Brill"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3504,8 +3674,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3529,33 +3714,84 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3567,19 +3803,92 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3595,9 +3904,9 @@
   <dimension ref="A1:AMJ4284"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C754" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="C776" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C771" activeCellId="0" sqref="C771"/>
+      <selection pane="bottomLeft" activeCell="G788" activeCellId="0" sqref="G788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21230,13 +21539,19 @@
       <c r="B772" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C772" s="7"/>
+      <c r="C772" s="7" t="s">
+        <v>738</v>
+      </c>
       <c r="D772" s="0"/>
       <c r="E772" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F772" s="0"/>
-      <c r="G772" s="0"/>
+      <c r="F772" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G772" s="0" t="s">
+        <v>1131</v>
+      </c>
       <c r="H772" s="0"/>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21246,13 +21561,19 @@
       <c r="B773" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C773" s="7"/>
+      <c r="C773" s="7" t="s">
+        <v>742</v>
+      </c>
       <c r="D773" s="0"/>
       <c r="E773" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F773" s="0"/>
-      <c r="G773" s="0"/>
+      <c r="F773" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G773" s="0" t="s">
+        <v>1132</v>
+      </c>
       <c r="H773" s="0"/>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21262,13 +21583,19 @@
       <c r="B774" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C774" s="7"/>
+      <c r="C774" s="7" t="s">
+        <v>748</v>
+      </c>
       <c r="D774" s="0"/>
       <c r="E774" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F774" s="0"/>
-      <c r="G774" s="0"/>
+      <c r="F774" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G774" s="0" t="s">
+        <v>1133</v>
+      </c>
       <c r="H774" s="0"/>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21278,13 +21605,19 @@
       <c r="B775" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C775" s="7"/>
+      <c r="C775" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="D775" s="0"/>
       <c r="E775" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F775" s="0"/>
-      <c r="G775" s="0"/>
+      <c r="F775" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G775" s="0" t="s">
+        <v>1134</v>
+      </c>
       <c r="H775" s="0"/>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21294,13 +21627,19 @@
       <c r="B776" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C776" s="7"/>
+      <c r="C776" s="7" t="s">
+        <v>758</v>
+      </c>
       <c r="D776" s="0"/>
       <c r="E776" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F776" s="0"/>
-      <c r="G776" s="0"/>
+      <c r="F776" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G776" s="0" t="s">
+        <v>1135</v>
+      </c>
       <c r="H776" s="0"/>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21310,13 +21649,19 @@
       <c r="B777" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C777" s="7"/>
+      <c r="C777" s="7" t="s">
+        <v>788</v>
+      </c>
       <c r="D777" s="0"/>
       <c r="E777" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F777" s="0"/>
-      <c r="G777" s="0"/>
+      <c r="F777" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G777" s="0" t="s">
+        <v>1136</v>
+      </c>
       <c r="H777" s="0"/>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21324,15 +21669,21 @@
         <v>780</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C778" s="7"/>
+        <v>1137</v>
+      </c>
+      <c r="C778" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="D778" s="0"/>
       <c r="E778" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F778" s="0"/>
-      <c r="G778" s="0"/>
+      <c r="F778" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G778" s="0" t="s">
+        <v>1138</v>
+      </c>
       <c r="H778" s="0"/>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21340,15 +21691,19 @@
         <v>781</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C779" s="7"/>
+        <v>1137</v>
+      </c>
+      <c r="C779" s="7" t="s">
+        <v>1139</v>
+      </c>
       <c r="D779" s="0"/>
       <c r="E779" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F779" s="0"/>
-      <c r="G779" s="0"/>
+      <c r="F779" s="5"/>
+      <c r="G779" s="0" t="s">
+        <v>1140</v>
+      </c>
       <c r="H779" s="0"/>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21356,15 +21711,21 @@
         <v>782</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C780" s="7"/>
+        <v>1141</v>
+      </c>
+      <c r="C780" s="7" t="s">
+        <v>1142</v>
+      </c>
       <c r="D780" s="0"/>
       <c r="E780" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F780" s="0"/>
-      <c r="G780" s="0"/>
+      <c r="F780" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G780" s="0" t="s">
+        <v>1143</v>
+      </c>
       <c r="H780" s="0"/>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21372,15 +21733,21 @@
         <v>783</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C781" s="7"/>
+        <v>1144</v>
+      </c>
+      <c r="C781" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="D781" s="0"/>
       <c r="E781" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F781" s="0"/>
-      <c r="G781" s="0"/>
+      <c r="F781" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G781" s="0" t="s">
+        <v>1145</v>
+      </c>
       <c r="H781" s="0"/>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21388,15 +21755,21 @@
         <v>784</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C782" s="7"/>
+        <v>1144</v>
+      </c>
+      <c r="C782" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="D782" s="0"/>
       <c r="E782" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F782" s="0"/>
-      <c r="G782" s="0"/>
+      <c r="F782" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G782" s="0" t="s">
+        <v>1146</v>
+      </c>
       <c r="H782" s="0"/>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21404,15 +21777,21 @@
         <v>785</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C783" s="7"/>
+        <v>509</v>
+      </c>
+      <c r="C783" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="D783" s="0"/>
       <c r="E783" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F783" s="0"/>
-      <c r="G783" s="0"/>
+      <c r="F783" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G783" s="0" t="s">
+        <v>1147</v>
+      </c>
       <c r="H783" s="0"/>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21420,15 +21799,19 @@
         <v>786</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C784" s="7"/>
+        <v>1148</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="D784" s="0"/>
       <c r="E784" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F784" s="0"/>
-      <c r="G784" s="0"/>
+      <c r="F784" s="5"/>
+      <c r="G784" s="4" t="s">
+        <v>1149</v>
+      </c>
       <c r="H784" s="0"/>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21436,15 +21819,19 @@
         <v>787</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C785" s="7"/>
+        <v>1148</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="D785" s="0"/>
       <c r="E785" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F785" s="0"/>
-      <c r="G785" s="0"/>
+      <c r="F785" s="5"/>
+      <c r="G785" s="4" t="s">
+        <v>1150</v>
+      </c>
       <c r="H785" s="0"/>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21452,15 +21839,16 @@
         <v>788</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C786" s="7"/>
+        <v>1151</v>
+      </c>
+      <c r="C786" s="7" t="s">
+        <v>919</v>
+      </c>
       <c r="D786" s="0"/>
-      <c r="E786" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F786" s="0"/>
-      <c r="G786" s="0"/>
+      <c r="F786" s="5"/>
+      <c r="G786" s="5" t="s">
+        <v>1152</v>
+      </c>
       <c r="H786" s="0"/>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21468,16 +21856,20 @@
         <v>789</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C787" s="3" t="s">
-        <v>214</v>
+        <v>1144</v>
+      </c>
+      <c r="C787" s="7" t="s">
+        <v>1035</v>
       </c>
       <c r="D787" s="0"/>
-      <c r="E787" s="0"/>
-      <c r="F787" s="0"/>
-      <c r="G787" s="4" t="s">
-        <v>1135</v>
+      <c r="E787" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>1153</v>
       </c>
       <c r="H787" s="0"/>
     </row>
@@ -21486,18 +21878,20 @@
         <v>790</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C788" s="3" t="s">
-        <v>214</v>
+        <v>1144</v>
+      </c>
+      <c r="C788" s="7" t="s">
+        <v>1154</v>
       </c>
       <c r="D788" s="5"/>
       <c r="E788" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F788" s="5"/>
-      <c r="G788" s="4" t="s">
-        <v>1136</v>
+      <c r="F788" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G788" s="5" t="s">
+        <v>1155</v>
       </c>
       <c r="H788" s="5"/>
     </row>
@@ -21506,69 +21900,63 @@
         <v>791</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C789" s="9"/>
+        <v>1156</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="D789" s="5"/>
       <c r="E789" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F789" s="5"/>
-      <c r="G789" s="5"/>
+      <c r="F789" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G789" s="4" t="s">
+        <v>1157</v>
+      </c>
       <c r="H789" s="5"/>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="n">
         <v>792</v>
       </c>
-      <c r="B790" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C790" s="9"/>
+      <c r="B790" s="0"/>
+      <c r="C790" s="0"/>
       <c r="D790" s="5"/>
       <c r="E790" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F790" s="5"/>
-      <c r="G790" s="5"/>
+      <c r="F790" s="0"/>
+      <c r="G790" s="0"/>
       <c r="H790" s="5"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="n">
         <v>793</v>
       </c>
-      <c r="B791" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C791" s="9"/>
+      <c r="B791" s="0"/>
+      <c r="C791" s="0"/>
       <c r="D791" s="5"/>
       <c r="E791" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F791" s="5"/>
-      <c r="G791" s="5"/>
+      <c r="F791" s="0"/>
+      <c r="G791" s="0"/>
       <c r="H791" s="5"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="n">
         <v>794</v>
       </c>
-      <c r="B792" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C792" s="3" t="s">
-        <v>866</v>
-      </c>
+      <c r="B792" s="0"/>
+      <c r="C792" s="0"/>
       <c r="D792" s="5"/>
       <c r="E792" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F792" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G792" s="4" t="s">
-        <v>1139</v>
-      </c>
+      <c r="F792" s="0"/>
+      <c r="G792" s="0"/>
       <c r="H792" s="5"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
